--- a/newCDC.xlsx
+++ b/newCDC.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shah\Documents\thesis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shah\Documents\thesis_git\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Gcc" sheetId="2" r:id="rId2"/>
+    <sheet name="periodic" sheetId="6" r:id="rId3"/>
+    <sheet name="Emacs-2min" sheetId="3" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
   <si>
     <t>2min</t>
   </si>
@@ -57,6 +60,63 @@
   </si>
   <si>
     <t>2*i</t>
+  </si>
+  <si>
+    <t>Local Maxima</t>
+  </si>
+  <si>
+    <t>Block SIze</t>
+  </si>
+  <si>
+    <t>Local Boundary</t>
+  </si>
+  <si>
+    <t>Karb Rabin</t>
+  </si>
+  <si>
+    <t>Divisor</t>
+  </si>
+  <si>
+    <t>Winnowing</t>
+  </si>
+  <si>
+    <t>TDDD</t>
+  </si>
+  <si>
+    <t>maxBoundary = 2*i</t>
+  </si>
+  <si>
+    <t>maxBoundary = 4*i</t>
+  </si>
+  <si>
+    <t>maxBoundary = 6*i</t>
+  </si>
+  <si>
+    <t>TwoMax</t>
+  </si>
+  <si>
+    <t>Decrement2min</t>
+  </si>
+  <si>
+    <t>Divisor2</t>
+  </si>
+  <si>
+    <t>Divisor3</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Periodic</t>
+  </si>
+  <si>
+    <t>Divisor1</t>
+  </si>
+  <si>
+    <t>Avg Chk Size</t>
+  </si>
+  <si>
+    <t>MaxBoundary = 4*i</t>
   </si>
 </sst>
 </file>
@@ -179,7 +239,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -559,8 +618,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="118837128"/>
-        <c:axId val="118835952"/>
+        <c:axId val="337111656"/>
+        <c:axId val="337110088"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1295,7 +1354,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="118837128"/>
+        <c:axId val="337111656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1341,7 +1400,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1408,12 +1466,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118835952"/>
+        <c:crossAx val="337110088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="118835952"/>
+        <c:axId val="337110088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.70000000000000007"/>
@@ -1460,7 +1518,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1527,7 +1584,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="118837128"/>
+        <c:crossAx val="337111656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1541,7 +1598,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1972,11 +2028,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="308463336"/>
-        <c:axId val="308460984"/>
+        <c:axId val="337109304"/>
+        <c:axId val="337106168"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="308463336"/>
+        <c:axId val="337109304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2033,12 +2089,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308460984"/>
+        <c:crossAx val="337106168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="308460984"/>
+        <c:axId val="337106168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -2096,7 +2152,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308463336"/>
+        <c:crossAx val="337109304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2108,6 +2164,1065 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Periodic</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Data</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>KR</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>periodic!$B$7:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>19.0005874678609</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.000732433050999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.000877400453099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>498085.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.001167341893801</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>622606.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1245213</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>830142</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1245213</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.001312315932399</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1245213</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1245213</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>622606.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.001457292183201</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1245213</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>periodic!$C$7:$C$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.99988676636045404</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99988676636045404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99987913714360499</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.499991969245422</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99988676636045404</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.49999076463223502</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.49999156770769299</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99987913714360499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.49999156770769299</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99987913714360499</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Winnowing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>periodic!$E$7:$E$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>19.001312315932399</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.001747251321799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19.002182206622901</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19.002472187886202</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.002907176376301</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19.003342184781602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>19.0036322014498</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19.004067243050201</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>19.0043572818497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>19.004792356648998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>19.0052274513694</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>19.005517525584299</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>19.005952653509699</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>19.006387801359899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>19.0066779109968</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>19.007113092057999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>19.0074032238368</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>19.007838438112898</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19.008128592036201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>periodic!$F$7:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.99990202479415102</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.99957115770554905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.99955589927185096</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99953301162130404</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.99951775318760705</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>LocalMaxima</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>periodic!$H$7:$H$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2490426</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2490426</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>periodic!$I$7:$I$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>TDDD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>periodic!$M$7:$M$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>113.9939579805</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>152.00354003906199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>208.99848942598101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>999.36837881219901</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>304.007080078125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1399.1157303370701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1594.3828425096001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1799.44075144508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1997.13392141138</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2198.08120035304</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>608.01416015625</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2596.8988529718399</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2795.0909090908999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2993.30048076923</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>3196.9525032092401</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3397.5798090040898</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3593.68831168831</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>949.81922196796302</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3991.0673076922999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>periodic!$N$7:$N$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.999703665156081</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99955108081910404</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.99924992752243902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.99661664309640197</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99912384467556903</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.99460574215013797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99308311108220004</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99388297423814198</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.998269372388499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98938896397644405</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98898742624755698</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.987060045148902</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98858267621684004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.99675718130151203</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98617666214535105</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="337651184"/>
+        <c:axId val="337653928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="337651184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="4000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Avg Chunk</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" b="1" baseline="0"/>
+                  <a:t> Size</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" b="1"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337653928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="337653928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" b="1"/>
+                  <a:t>Ratio</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="337651184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -2186,6 +3301,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3257,20 +4412,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3314,6 +4985,41 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3587,13 +5293,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="2"/>
+    <col min="1" max="1" width="14" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9.140625" style="2"/>
     <col min="4" max="4" width="14" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="15.28515625" style="3" bestFit="1" customWidth="1"/>
@@ -5192,4 +6899,3879 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>28</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>101.976054604453</v>
+      </c>
+      <c r="C3">
+        <v>0.92257292893711396</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>215.33822666331201</v>
+      </c>
+      <c r="F3">
+        <v>0.91597665452836097</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>32.9150356037728</v>
+      </c>
+      <c r="I3">
+        <v>0.95450623952292502</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>193.04384664265999</v>
+      </c>
+      <c r="N3">
+        <v>0.90789769702564305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>146.59312491892501</v>
+      </c>
+      <c r="C4">
+        <v>0.918931862200978</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>329.92526158445401</v>
+      </c>
+      <c r="F4">
+        <v>0.89549737082049596</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+      <c r="H4">
+        <v>48.139421553225297</v>
+      </c>
+      <c r="I4">
+        <v>0.94702695298341699</v>
+      </c>
+      <c r="J4">
+        <v>150</v>
+      </c>
+      <c r="K4">
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>37</v>
+      </c>
+      <c r="M4">
+        <v>289.10450968553903</v>
+      </c>
+      <c r="N4">
+        <v>0.88434063094644799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>208.54458083898601</v>
+      </c>
+      <c r="C5">
+        <v>0.89089857200299005</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>439.60601864098197</v>
+      </c>
+      <c r="F5">
+        <v>0.88852969118113401</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>68.818411232254704</v>
+      </c>
+      <c r="I5">
+        <v>0.94302453334541503</v>
+      </c>
+      <c r="J5">
+        <v>200</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>392.46742422137601</v>
+      </c>
+      <c r="N5">
+        <v>0.872039978536154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>261.57954187730297</v>
+      </c>
+      <c r="C6">
+        <v>0.88299004394708203</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+      <c r="E6">
+        <v>554.83424980361303</v>
+      </c>
+      <c r="F6">
+        <v>0.87514618351304796</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
+      <c r="H6">
+        <v>87.987193781260302</v>
+      </c>
+      <c r="I6">
+        <v>0.93914886507792605</v>
+      </c>
+      <c r="J6">
+        <v>250</v>
+      </c>
+      <c r="K6">
+        <v>125</v>
+      </c>
+      <c r="L6">
+        <v>62</v>
+      </c>
+      <c r="M6">
+        <v>496.11322808927599</v>
+      </c>
+      <c r="N6">
+        <v>0.85775501766944495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>306.898551984096</v>
+      </c>
+      <c r="C7">
+        <v>0.87714153537286998</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>671.80672468730597</v>
+      </c>
+      <c r="F7">
+        <v>0.86592681763093504</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>110.465719145275</v>
+      </c>
+      <c r="I7">
+        <v>0.93521847533073499</v>
+      </c>
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>150</v>
+      </c>
+      <c r="L7">
+        <v>75</v>
+      </c>
+      <c r="M7">
+        <v>588.24352461064302</v>
+      </c>
+      <c r="N7">
+        <v>0.84867383591201495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>350</v>
+      </c>
+      <c r="B8">
+        <v>373.48844587806002</v>
+      </c>
+      <c r="C8">
+        <v>0.87096324670396796</v>
+      </c>
+      <c r="D8">
+        <v>350</v>
+      </c>
+      <c r="E8">
+        <v>786.59576245231995</v>
+      </c>
+      <c r="F8">
+        <v>0.85755563468421503</v>
+      </c>
+      <c r="G8">
+        <v>350</v>
+      </c>
+      <c r="H8">
+        <v>136.14055377261201</v>
+      </c>
+      <c r="I8">
+        <v>0.93150520172616802</v>
+      </c>
+      <c r="J8">
+        <v>350</v>
+      </c>
+      <c r="K8">
+        <v>175</v>
+      </c>
+      <c r="L8">
+        <v>87</v>
+      </c>
+      <c r="M8">
+        <v>699.93459518382701</v>
+      </c>
+      <c r="N8">
+        <v>0.84116895840884298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>400</v>
+      </c>
+      <c r="B9">
+        <v>399.453673985889</v>
+      </c>
+      <c r="C9">
+        <v>0.85364835821402596</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <v>903.51977997377503</v>
+      </c>
+      <c r="F9">
+        <v>0.85004265160610704</v>
+      </c>
+      <c r="G9">
+        <v>400</v>
+      </c>
+      <c r="H9">
+        <v>165.444675431148</v>
+      </c>
+      <c r="I9">
+        <v>0.92124258817732796</v>
+      </c>
+      <c r="J9">
+        <v>400</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>791.70968193918998</v>
+      </c>
+      <c r="N9">
+        <v>0.82558629145523699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>450</v>
+      </c>
+      <c r="B10">
+        <v>438.60278821374197</v>
+      </c>
+      <c r="C10">
+        <v>0.86172214797027902</v>
+      </c>
+      <c r="D10">
+        <v>450</v>
+      </c>
+      <c r="E10">
+        <v>1025.7473768289501</v>
+      </c>
+      <c r="F10">
+        <v>0.84239006858236598</v>
+      </c>
+      <c r="G10">
+        <v>450</v>
+      </c>
+      <c r="H10">
+        <v>194.716252911905</v>
+      </c>
+      <c r="I10">
+        <v>0.91296665458499404</v>
+      </c>
+      <c r="J10">
+        <v>450</v>
+      </c>
+      <c r="K10">
+        <v>225</v>
+      </c>
+      <c r="L10">
+        <v>112</v>
+      </c>
+      <c r="M10">
+        <v>883.95732298738994</v>
+      </c>
+      <c r="N10">
+        <v>0.82362488390268196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>500</v>
+      </c>
+      <c r="B11">
+        <v>520.27844278295402</v>
+      </c>
+      <c r="C11">
+        <v>0.84940864698486696</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <v>1172.6780674082599</v>
+      </c>
+      <c r="F11">
+        <v>0.82520373663464996</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>219.93305204814001</v>
+      </c>
+      <c r="I11">
+        <v>0.90798707072308804</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+      <c r="K11">
+        <v>250</v>
+      </c>
+      <c r="L11">
+        <v>125</v>
+      </c>
+      <c r="M11">
+        <v>1001.9562364790499</v>
+      </c>
+      <c r="N11">
+        <v>0.808383146633744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>550</v>
+      </c>
+      <c r="B12">
+        <v>513.45158476301197</v>
+      </c>
+      <c r="C12">
+        <v>0.82840844735411301</v>
+      </c>
+      <c r="D12">
+        <v>550</v>
+      </c>
+      <c r="E12">
+        <v>1302.8434401660099</v>
+      </c>
+      <c r="F12">
+        <v>0.81730964995242805</v>
+      </c>
+      <c r="G12">
+        <v>550</v>
+      </c>
+      <c r="H12">
+        <v>239.79086742488499</v>
+      </c>
+      <c r="I12">
+        <v>0.903652782654494</v>
+      </c>
+      <c r="J12">
+        <v>550</v>
+      </c>
+      <c r="K12">
+        <v>275</v>
+      </c>
+      <c r="L12">
+        <v>137</v>
+      </c>
+      <c r="M12">
+        <v>1077.8741749646999</v>
+      </c>
+      <c r="N12">
+        <v>0.79698759316101797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>600</v>
+      </c>
+      <c r="B13">
+        <v>654.34871224754397</v>
+      </c>
+      <c r="C13">
+        <v>0.82902277206415298</v>
+      </c>
+      <c r="D13">
+        <v>600</v>
+      </c>
+      <c r="E13">
+        <v>1430.3442689347901</v>
+      </c>
+      <c r="F13">
+        <v>0.80985744098858203</v>
+      </c>
+      <c r="G13">
+        <v>600</v>
+      </c>
+      <c r="H13">
+        <v>258.34325478469901</v>
+      </c>
+      <c r="I13">
+        <v>0.90066773655536403</v>
+      </c>
+      <c r="J13">
+        <v>600</v>
+      </c>
+      <c r="K13">
+        <v>300</v>
+      </c>
+      <c r="L13">
+        <v>150</v>
+      </c>
+      <c r="M13">
+        <v>1224.73383041442</v>
+      </c>
+      <c r="N13">
+        <v>0.78883487138682495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>650</v>
+      </c>
+      <c r="B14">
+        <v>695.90029065471197</v>
+      </c>
+      <c r="C14">
+        <v>0.81505222963483104</v>
+      </c>
+      <c r="D14">
+        <v>650</v>
+      </c>
+      <c r="E14">
+        <v>1560.7203623908899</v>
+      </c>
+      <c r="F14">
+        <v>0.80271604011870201</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+      <c r="H14">
+        <v>276.97109917258098</v>
+      </c>
+      <c r="I14">
+        <v>0.89792759208499395</v>
+      </c>
+      <c r="J14">
+        <v>650</v>
+      </c>
+      <c r="K14">
+        <v>325</v>
+      </c>
+      <c r="L14">
+        <v>162</v>
+      </c>
+      <c r="M14">
+        <v>1325.5212536361</v>
+      </c>
+      <c r="N14">
+        <v>0.77564526039778903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>700</v>
+      </c>
+      <c r="B15">
+        <v>740.69055921138795</v>
+      </c>
+      <c r="C15">
+        <v>0.82580160242614997</v>
+      </c>
+      <c r="D15">
+        <v>700</v>
+      </c>
+      <c r="E15">
+        <v>1685.18699671935</v>
+      </c>
+      <c r="F15">
+        <v>0.795435251676332</v>
+      </c>
+      <c r="G15">
+        <v>700</v>
+      </c>
+      <c r="H15">
+        <v>294.65858720705802</v>
+      </c>
+      <c r="I15">
+        <v>0.89575706777817998</v>
+      </c>
+      <c r="J15">
+        <v>700</v>
+      </c>
+      <c r="K15">
+        <v>350</v>
+      </c>
+      <c r="L15">
+        <v>175</v>
+      </c>
+      <c r="M15">
+        <v>1416.07738960453</v>
+      </c>
+      <c r="N15">
+        <v>0.78598623963618997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>750</v>
+      </c>
+      <c r="B16">
+        <v>722.063025532241</v>
+      </c>
+      <c r="C16">
+        <v>0.82227893371692595</v>
+      </c>
+      <c r="D16">
+        <v>750</v>
+      </c>
+      <c r="E16">
+        <v>1805.48057259713</v>
+      </c>
+      <c r="F16">
+        <v>0.78901701675199298</v>
+      </c>
+      <c r="G16">
+        <v>750</v>
+      </c>
+      <c r="H16">
+        <v>311.64480723622501</v>
+      </c>
+      <c r="I16">
+        <v>0.89359280847906797</v>
+      </c>
+      <c r="J16">
+        <v>750</v>
+      </c>
+      <c r="K16">
+        <v>375</v>
+      </c>
+      <c r="L16">
+        <v>187</v>
+      </c>
+      <c r="M16">
+        <v>1480.64357213982</v>
+      </c>
+      <c r="N16">
+        <v>0.78583088868249296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>800</v>
+      </c>
+      <c r="B17">
+        <v>738.21326853230903</v>
+      </c>
+      <c r="C17">
+        <v>0.80246851922118501</v>
+      </c>
+      <c r="D17">
+        <v>800</v>
+      </c>
+      <c r="E17">
+        <v>1923.0930501667599</v>
+      </c>
+      <c r="F17">
+        <v>0.78298735388727803</v>
+      </c>
+      <c r="G17">
+        <v>800</v>
+      </c>
+      <c r="H17">
+        <v>328.50966849222601</v>
+      </c>
+      <c r="I17">
+        <v>0.89135644849809703</v>
+      </c>
+      <c r="J17">
+        <v>800</v>
+      </c>
+      <c r="K17">
+        <v>400</v>
+      </c>
+      <c r="L17">
+        <v>200</v>
+      </c>
+      <c r="M17">
+        <v>1584.7960958097201</v>
+      </c>
+      <c r="N17">
+        <v>0.77025331868430502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>850</v>
+      </c>
+      <c r="B18">
+        <v>790.97821826530003</v>
+      </c>
+      <c r="C18">
+        <v>0.82872385686616501</v>
+      </c>
+      <c r="D18">
+        <v>850</v>
+      </c>
+      <c r="E18">
+        <v>2035.4582132564799</v>
+      </c>
+      <c r="F18">
+        <v>0.77780442274148198</v>
+      </c>
+      <c r="G18">
+        <v>850</v>
+      </c>
+      <c r="H18">
+        <v>344.90868248852399</v>
+      </c>
+      <c r="I18">
+        <v>0.88937497168358104</v>
+      </c>
+      <c r="J18">
+        <v>850</v>
+      </c>
+      <c r="K18">
+        <v>425</v>
+      </c>
+      <c r="L18">
+        <v>212</v>
+      </c>
+      <c r="M18">
+        <v>1656.53239519202</v>
+      </c>
+      <c r="N18">
+        <v>0.78380031827654895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>900</v>
+      </c>
+      <c r="B19">
+        <v>893.63150403289501</v>
+      </c>
+      <c r="C19">
+        <v>0.78599087644980004</v>
+      </c>
+      <c r="D19">
+        <v>900</v>
+      </c>
+      <c r="E19">
+        <v>2146.8206686929998</v>
+      </c>
+      <c r="F19">
+        <v>0.77309441118838296</v>
+      </c>
+      <c r="G19">
+        <v>900</v>
+      </c>
+      <c r="H19">
+        <v>361.21615056128002</v>
+      </c>
+      <c r="I19">
+        <v>0.88718448430137697</v>
+      </c>
+      <c r="J19">
+        <v>900</v>
+      </c>
+      <c r="K19">
+        <v>450</v>
+      </c>
+      <c r="L19">
+        <v>225</v>
+      </c>
+      <c r="M19">
+        <v>1804.09706257982</v>
+      </c>
+      <c r="N19">
+        <v>0.75325263625860805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>950</v>
+      </c>
+      <c r="B20">
+        <v>1032.6836757072799</v>
+      </c>
+      <c r="C20">
+        <v>0.78183526498504896</v>
+      </c>
+      <c r="D20">
+        <v>950</v>
+      </c>
+      <c r="E20">
+        <v>2275.8305139358699</v>
+      </c>
+      <c r="F20">
+        <v>0.76708127803325399</v>
+      </c>
+      <c r="G20">
+        <v>950</v>
+      </c>
+      <c r="H20">
+        <v>378.30958757364698</v>
+      </c>
+      <c r="I20">
+        <v>0.88503558665956805</v>
+      </c>
+      <c r="J20">
+        <v>950</v>
+      </c>
+      <c r="K20">
+        <v>475</v>
+      </c>
+      <c r="L20">
+        <v>237</v>
+      </c>
+      <c r="M20">
+        <v>1947.75318855567</v>
+      </c>
+      <c r="N20">
+        <v>0.74615225880074298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="B21">
+        <v>1017.03301054753</v>
+      </c>
+      <c r="C21">
+        <v>0.78516662088845601</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>2395.0627331298701</v>
+      </c>
+      <c r="F21">
+        <v>0.761944608836988</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>395.47250101485099</v>
+      </c>
+      <c r="I21">
+        <v>0.88288406974900302</v>
+      </c>
+      <c r="J21">
+        <v>1000</v>
+      </c>
+      <c r="K21">
+        <v>500</v>
+      </c>
+      <c r="L21">
+        <v>250</v>
+      </c>
+      <c r="M21">
+        <v>2014.8452431892699</v>
+      </c>
+      <c r="N21">
+        <v>0.74536506235275402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1050</v>
+      </c>
+      <c r="H22">
+        <v>412.518580168499</v>
+      </c>
+      <c r="I22">
+        <v>0.880811980393711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1100</v>
+      </c>
+      <c r="H23">
+        <v>429.05114809865103</v>
+      </c>
+      <c r="I23">
+        <v>0.87917649482375804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>1150</v>
+      </c>
+      <c r="H24">
+        <v>445.25247431128997</v>
+      </c>
+      <c r="I24">
+        <v>0.87708083204965503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1200</v>
+      </c>
+      <c r="H25">
+        <v>461.76486932644599</v>
+      </c>
+      <c r="I25">
+        <v>0.87496842719282297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1250</v>
+      </c>
+      <c r="H26">
+        <v>478.10465037568503</v>
+      </c>
+      <c r="I26">
+        <v>0.87284370469372896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>1300</v>
+      </c>
+      <c r="H27">
+        <v>494.13484914735398</v>
+      </c>
+      <c r="I27">
+        <v>0.87127685104430896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1350</v>
+      </c>
+      <c r="H28">
+        <v>510.47357484867598</v>
+      </c>
+      <c r="I28">
+        <v>0.86935880300833601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>1400</v>
+      </c>
+      <c r="H29">
+        <v>526.89593435285303</v>
+      </c>
+      <c r="I29">
+        <v>0.86752531487857898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>1450</v>
+      </c>
+      <c r="H30">
+        <v>542.56995256476705</v>
+      </c>
+      <c r="I30">
+        <v>0.86539853943910805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>1500</v>
+      </c>
+      <c r="H31">
+        <v>558.38722428650397</v>
+      </c>
+      <c r="I31">
+        <v>0.86346874008925301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>1550</v>
+      </c>
+      <c r="H32">
+        <v>575.02564520068302</v>
+      </c>
+      <c r="I32">
+        <v>0.86124062726531303</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>1600</v>
+      </c>
+      <c r="H33">
+        <v>590.259067357513</v>
+      </c>
+      <c r="I33">
+        <v>0.85917066164144595</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>1650</v>
+      </c>
+      <c r="H34">
+        <v>605.32127782657994</v>
+      </c>
+      <c r="I34">
+        <v>0.85714186101168899</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>1700</v>
+      </c>
+      <c r="H35">
+        <v>618.92698315332802</v>
+      </c>
+      <c r="I35">
+        <v>0.85535746647335897</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>1750</v>
+      </c>
+      <c r="H36">
+        <v>633.05906605718303</v>
+      </c>
+      <c r="I36">
+        <v>0.853515625</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>1800</v>
+      </c>
+      <c r="H37">
+        <v>647.940738022613</v>
+      </c>
+      <c r="I37">
+        <v>0.851309740564969</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>1850</v>
+      </c>
+      <c r="H38">
+        <v>661.87560032798399</v>
+      </c>
+      <c r="I38">
+        <v>0.84973612637051399</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>1900</v>
+      </c>
+      <c r="H39">
+        <v>675.74350020330496</v>
+      </c>
+      <c r="I39">
+        <v>0.847402499490304</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>1950</v>
+      </c>
+      <c r="H40">
+        <v>690.96458618665599</v>
+      </c>
+      <c r="I40">
+        <v>0.84560458386190596</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>2000</v>
+      </c>
+      <c r="H41">
+        <v>704.98215845289997</v>
+      </c>
+      <c r="I41">
+        <v>0.843894980065241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5:F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H6" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" t="s">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>100</v>
+      </c>
+      <c r="B7">
+        <v>19.0005874678609</v>
+      </c>
+      <c r="C7">
+        <v>0.99988676636045404</v>
+      </c>
+      <c r="D7">
+        <v>100</v>
+      </c>
+      <c r="E7">
+        <v>19.001312315932399</v>
+      </c>
+      <c r="F7">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>2490426</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>100</v>
+      </c>
+      <c r="K7">
+        <v>50</v>
+      </c>
+      <c r="L7">
+        <v>25</v>
+      </c>
+      <c r="M7">
+        <v>113.9939579805</v>
+      </c>
+      <c r="N7">
+        <v>0.999703665156081</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>150</v>
+      </c>
+      <c r="B8">
+        <v>19.000732433050999</v>
+      </c>
+      <c r="C8">
+        <v>0.99988676636045404</v>
+      </c>
+      <c r="D8">
+        <v>150</v>
+      </c>
+      <c r="E8">
+        <v>19.001747251321799</v>
+      </c>
+      <c r="F8">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G8">
+        <v>150</v>
+      </c>
+      <c r="H8">
+        <v>2490426</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>150</v>
+      </c>
+      <c r="K8">
+        <v>75</v>
+      </c>
+      <c r="L8">
+        <v>37</v>
+      </c>
+      <c r="M8">
+        <v>152.00354003906199</v>
+      </c>
+      <c r="N8">
+        <v>0.99955108081910404</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>200</v>
+      </c>
+      <c r="B9">
+        <v>19.000877400453099</v>
+      </c>
+      <c r="C9">
+        <v>0.99987913714360499</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>19.002182206622901</v>
+      </c>
+      <c r="F9">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G9">
+        <v>200</v>
+      </c>
+      <c r="H9">
+        <v>2490426</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>200</v>
+      </c>
+      <c r="K9">
+        <v>100</v>
+      </c>
+      <c r="L9">
+        <v>50</v>
+      </c>
+      <c r="M9">
+        <v>208.99848942598101</v>
+      </c>
+      <c r="N9">
+        <v>0.99924992752243902</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>250</v>
+      </c>
+      <c r="B10">
+        <v>498085.2</v>
+      </c>
+      <c r="C10">
+        <v>0.499991969245422</v>
+      </c>
+      <c r="D10">
+        <v>250</v>
+      </c>
+      <c r="E10">
+        <v>19.002472187886202</v>
+      </c>
+      <c r="F10">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G10">
+        <v>250</v>
+      </c>
+      <c r="H10">
+        <v>2490426</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>250</v>
+      </c>
+      <c r="K10">
+        <v>125</v>
+      </c>
+      <c r="L10">
+        <v>62</v>
+      </c>
+      <c r="M10">
+        <v>999.36837881219901</v>
+      </c>
+      <c r="N10">
+        <v>0.99661664309640197</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>300</v>
+      </c>
+      <c r="B11">
+        <v>19.001167341893801</v>
+      </c>
+      <c r="C11">
+        <v>0.99988676636045404</v>
+      </c>
+      <c r="D11">
+        <v>300</v>
+      </c>
+      <c r="E11">
+        <v>19.002907176376301</v>
+      </c>
+      <c r="F11">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G11">
+        <v>300</v>
+      </c>
+      <c r="H11">
+        <v>2490426</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>300</v>
+      </c>
+      <c r="K11">
+        <v>150</v>
+      </c>
+      <c r="L11">
+        <v>75</v>
+      </c>
+      <c r="M11">
+        <v>304.007080078125</v>
+      </c>
+      <c r="N11">
+        <v>0.99912384467556903</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>350</v>
+      </c>
+      <c r="B12">
+        <v>622606.5</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>350</v>
+      </c>
+      <c r="E12">
+        <v>19.003342184781602</v>
+      </c>
+      <c r="F12">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G12">
+        <v>350</v>
+      </c>
+      <c r="H12">
+        <v>2490426</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>350</v>
+      </c>
+      <c r="K12">
+        <v>175</v>
+      </c>
+      <c r="L12">
+        <v>87</v>
+      </c>
+      <c r="M12">
+        <v>1399.1157303370701</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>400</v>
+      </c>
+      <c r="B13">
+        <v>1245213</v>
+      </c>
+      <c r="C13">
+        <v>0.49999076463223502</v>
+      </c>
+      <c r="D13">
+        <v>400</v>
+      </c>
+      <c r="E13">
+        <v>19.0036322014498</v>
+      </c>
+      <c r="F13">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G13">
+        <v>400</v>
+      </c>
+      <c r="H13">
+        <v>2490426</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>400</v>
+      </c>
+      <c r="K13">
+        <v>200</v>
+      </c>
+      <c r="L13">
+        <v>100</v>
+      </c>
+      <c r="M13">
+        <v>1594.3828425096001</v>
+      </c>
+      <c r="N13">
+        <v>0.99460574215013797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>450</v>
+      </c>
+      <c r="B14">
+        <v>830142</v>
+      </c>
+      <c r="C14">
+        <v>0.49999156770769299</v>
+      </c>
+      <c r="D14">
+        <v>450</v>
+      </c>
+      <c r="E14">
+        <v>19.004067243050201</v>
+      </c>
+      <c r="F14">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G14">
+        <v>450</v>
+      </c>
+      <c r="H14">
+        <v>2490426</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>450</v>
+      </c>
+      <c r="K14">
+        <v>225</v>
+      </c>
+      <c r="L14">
+        <v>112</v>
+      </c>
+      <c r="M14">
+        <v>1799.44075144508</v>
+      </c>
+      <c r="N14">
+        <v>0.99308311108220004</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>500</v>
+      </c>
+      <c r="B15">
+        <v>1245213</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>500</v>
+      </c>
+      <c r="E15">
+        <v>19.0043572818497</v>
+      </c>
+      <c r="F15">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G15">
+        <v>500</v>
+      </c>
+      <c r="H15">
+        <v>2490426</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>500</v>
+      </c>
+      <c r="K15">
+        <v>250</v>
+      </c>
+      <c r="L15">
+        <v>125</v>
+      </c>
+      <c r="M15">
+        <v>1997.13392141138</v>
+      </c>
+      <c r="N15">
+        <v>0.99388297423814198</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>550</v>
+      </c>
+      <c r="B16">
+        <v>2490426</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>550</v>
+      </c>
+      <c r="E16">
+        <v>19.004792356648998</v>
+      </c>
+      <c r="F16">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G16">
+        <v>550</v>
+      </c>
+      <c r="H16">
+        <v>2490426</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>550</v>
+      </c>
+      <c r="K16">
+        <v>275</v>
+      </c>
+      <c r="L16">
+        <v>137</v>
+      </c>
+      <c r="M16">
+        <v>2198.08120035304</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>600</v>
+      </c>
+      <c r="B17">
+        <v>19.001312315932399</v>
+      </c>
+      <c r="C17">
+        <v>0.99987913714360499</v>
+      </c>
+      <c r="D17">
+        <v>600</v>
+      </c>
+      <c r="E17">
+        <v>19.0052274513694</v>
+      </c>
+      <c r="F17">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G17">
+        <v>600</v>
+      </c>
+      <c r="H17">
+        <v>2490426</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>600</v>
+      </c>
+      <c r="K17">
+        <v>300</v>
+      </c>
+      <c r="L17">
+        <v>150</v>
+      </c>
+      <c r="M17">
+        <v>608.01416015625</v>
+      </c>
+      <c r="N17">
+        <v>0.998269372388499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>650</v>
+      </c>
+      <c r="B18">
+        <v>1245213</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>650</v>
+      </c>
+      <c r="E18">
+        <v>19.005517525584299</v>
+      </c>
+      <c r="F18">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G18">
+        <v>650</v>
+      </c>
+      <c r="H18">
+        <v>2490426</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>650</v>
+      </c>
+      <c r="K18">
+        <v>325</v>
+      </c>
+      <c r="L18">
+        <v>162</v>
+      </c>
+      <c r="M18">
+        <v>2596.8988529718399</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>700</v>
+      </c>
+      <c r="B19">
+        <v>1245213</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>700</v>
+      </c>
+      <c r="E19">
+        <v>19.005952653509699</v>
+      </c>
+      <c r="F19">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G19">
+        <v>700</v>
+      </c>
+      <c r="H19">
+        <v>2490426</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>700</v>
+      </c>
+      <c r="K19">
+        <v>350</v>
+      </c>
+      <c r="L19">
+        <v>175</v>
+      </c>
+      <c r="M19">
+        <v>2795.0909090908999</v>
+      </c>
+      <c r="N19">
+        <v>0.98938896397644405</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>750</v>
+      </c>
+      <c r="B20">
+        <v>622606.5</v>
+      </c>
+      <c r="C20">
+        <v>0.49999156770769299</v>
+      </c>
+      <c r="D20">
+        <v>750</v>
+      </c>
+      <c r="E20">
+        <v>19.006387801359899</v>
+      </c>
+      <c r="F20">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G20">
+        <v>750</v>
+      </c>
+      <c r="H20">
+        <v>2490426</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>750</v>
+      </c>
+      <c r="K20">
+        <v>375</v>
+      </c>
+      <c r="L20">
+        <v>187</v>
+      </c>
+      <c r="M20">
+        <v>2993.30048076923</v>
+      </c>
+      <c r="N20">
+        <v>0.98898742624755698</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>800</v>
+      </c>
+      <c r="B21">
+        <v>2490426</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>800</v>
+      </c>
+      <c r="E21">
+        <v>19.0066779109968</v>
+      </c>
+      <c r="F21">
+        <v>0.99990202479415102</v>
+      </c>
+      <c r="G21">
+        <v>800</v>
+      </c>
+      <c r="H21">
+        <v>2490426</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>800</v>
+      </c>
+      <c r="K21">
+        <v>400</v>
+      </c>
+      <c r="L21">
+        <v>200</v>
+      </c>
+      <c r="M21">
+        <v>3196.9525032092401</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>850</v>
+      </c>
+      <c r="B22">
+        <v>2490426</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>850</v>
+      </c>
+      <c r="E22">
+        <v>19.007113092057999</v>
+      </c>
+      <c r="F22">
+        <v>0.99957115770554905</v>
+      </c>
+      <c r="G22">
+        <v>850</v>
+      </c>
+      <c r="H22">
+        <v>2490426</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>850</v>
+      </c>
+      <c r="K22">
+        <v>425</v>
+      </c>
+      <c r="L22">
+        <v>212</v>
+      </c>
+      <c r="M22">
+        <v>3397.5798090040898</v>
+      </c>
+      <c r="N22">
+        <v>0.987060045148902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>900</v>
+      </c>
+      <c r="B23">
+        <v>2490426</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>900</v>
+      </c>
+      <c r="E23">
+        <v>19.0074032238368</v>
+      </c>
+      <c r="F23">
+        <v>0.99955589927185096</v>
+      </c>
+      <c r="G23">
+        <v>900</v>
+      </c>
+      <c r="H23">
+        <v>2490426</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>900</v>
+      </c>
+      <c r="K23">
+        <v>450</v>
+      </c>
+      <c r="L23">
+        <v>225</v>
+      </c>
+      <c r="M23">
+        <v>3593.68831168831</v>
+      </c>
+      <c r="N23">
+        <v>0.98858267621684004</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>950</v>
+      </c>
+      <c r="B24">
+        <v>19.001457292183201</v>
+      </c>
+      <c r="C24">
+        <v>0.99987913714360499</v>
+      </c>
+      <c r="D24">
+        <v>950</v>
+      </c>
+      <c r="E24">
+        <v>19.007838438112898</v>
+      </c>
+      <c r="F24">
+        <v>0.99953301162130404</v>
+      </c>
+      <c r="G24">
+        <v>950</v>
+      </c>
+      <c r="H24">
+        <v>2490426</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>950</v>
+      </c>
+      <c r="K24">
+        <v>475</v>
+      </c>
+      <c r="L24">
+        <v>237</v>
+      </c>
+      <c r="M24">
+        <v>949.81922196796302</v>
+      </c>
+      <c r="N24">
+        <v>0.99675718130151203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1000</v>
+      </c>
+      <c r="B25">
+        <v>1245213</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1000</v>
+      </c>
+      <c r="E25">
+        <v>19.008128592036201</v>
+      </c>
+      <c r="F25">
+        <v>0.99951775318760705</v>
+      </c>
+      <c r="G25">
+        <v>1000</v>
+      </c>
+      <c r="H25">
+        <v>2490426</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1000</v>
+      </c>
+      <c r="K25">
+        <v>500</v>
+      </c>
+      <c r="L25">
+        <v>250</v>
+      </c>
+      <c r="M25">
+        <v>3991.0673076922999</v>
+      </c>
+      <c r="N25">
+        <v>0.98617666214535105</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AD21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB3" sqref="AB3:AD7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="17.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
+      </c>
+      <c r="P1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>19</v>
+      </c>
+      <c r="S1" t="s">
+        <v>22</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" t="s">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>13</v>
+      </c>
+      <c r="N2" t="s">
+        <v>12</v>
+      </c>
+      <c r="O2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" t="s">
+        <v>13</v>
+      </c>
+      <c r="T2" t="s">
+        <v>12</v>
+      </c>
+      <c r="U2" t="s">
+        <v>3</v>
+      </c>
+      <c r="V2" t="s">
+        <v>13</v>
+      </c>
+      <c r="W2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>13</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>12</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>215.33822666331201</v>
+      </c>
+      <c r="C3">
+        <v>0.91597665452836097</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>202.652282443405</v>
+      </c>
+      <c r="F3">
+        <v>0.91378029148921702</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>213.08554447679199</v>
+      </c>
+      <c r="I3">
+        <v>0.91215977822580596</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>214.618464132969</v>
+      </c>
+      <c r="L3">
+        <v>0.91233955209088402</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>81.546641112528604</v>
+      </c>
+      <c r="O3">
+        <v>0.93911389430047099</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+      <c r="Q3">
+        <v>171.247007194855</v>
+      </c>
+      <c r="R3">
+        <v>0.92682028559940199</v>
+      </c>
+      <c r="S3">
+        <v>100</v>
+      </c>
+      <c r="T3">
+        <v>195.836521932013</v>
+      </c>
+      <c r="U3">
+        <v>0.91818176026187004</v>
+      </c>
+      <c r="V3">
+        <v>100</v>
+      </c>
+      <c r="W3">
+        <v>120.23986551188401</v>
+      </c>
+      <c r="X3">
+        <v>0.93774398134514303</v>
+      </c>
+      <c r="Y3">
+        <v>100</v>
+      </c>
+      <c r="Z3">
+        <v>200.70728813679699</v>
+      </c>
+      <c r="AA3">
+        <v>0.92211310568820204</v>
+      </c>
+      <c r="AB3">
+        <v>100</v>
+      </c>
+      <c r="AC3">
+        <v>212.657297915741</v>
+      </c>
+      <c r="AD3">
+        <v>0.91723758466609195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>329.92526158445401</v>
+      </c>
+      <c r="C4">
+        <v>0.89549737082049596</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>307.50985044735103</v>
+      </c>
+      <c r="F4">
+        <v>0.89543280938519298</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+      <c r="H4">
+        <v>326.06421531288203</v>
+      </c>
+      <c r="I4">
+        <v>0.89312891474492495</v>
+      </c>
+      <c r="J4">
+        <v>150</v>
+      </c>
+      <c r="K4">
+        <v>328.75049454257697</v>
+      </c>
+      <c r="L4">
+        <v>0.89286429780944099</v>
+      </c>
+      <c r="M4">
+        <v>150</v>
+      </c>
+      <c r="N4">
+        <v>132.58509435113299</v>
+      </c>
+      <c r="O4">
+        <v>0.93058856384786104</v>
+      </c>
+      <c r="P4">
+        <v>150</v>
+      </c>
+      <c r="Q4">
+        <v>271.872359671661</v>
+      </c>
+      <c r="R4">
+        <v>0.90430349396293896</v>
+      </c>
+      <c r="S4">
+        <v>150</v>
+      </c>
+      <c r="T4">
+        <v>290.13175595879898</v>
+      </c>
+      <c r="U4">
+        <v>0.89743290424519695</v>
+      </c>
+      <c r="V4">
+        <v>150</v>
+      </c>
+      <c r="W4">
+        <v>179.354879666838</v>
+      </c>
+      <c r="X4">
+        <v>0.92862687313111603</v>
+      </c>
+      <c r="Y4">
+        <v>150</v>
+      </c>
+      <c r="Z4">
+        <v>308.33880842982899</v>
+      </c>
+      <c r="AA4">
+        <v>0.90039699619427305</v>
+      </c>
+      <c r="AB4">
+        <v>150</v>
+      </c>
+      <c r="AC4">
+        <v>325.35452294581597</v>
+      </c>
+      <c r="AD4">
+        <v>0.89716637595143101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>439.60601864098197</v>
+      </c>
+      <c r="C5">
+        <v>0.88852969118113401</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>411.26952471067699</v>
+      </c>
+      <c r="F5">
+        <v>0.88564552232466398</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>433.70780307333303</v>
+      </c>
+      <c r="I5">
+        <v>0.88360592606016597</v>
+      </c>
+      <c r="J5">
+        <v>200</v>
+      </c>
+      <c r="K5">
+        <v>437.67191832814302</v>
+      </c>
+      <c r="L5">
+        <v>0.88342569205328003</v>
+      </c>
+      <c r="M5">
+        <v>200</v>
+      </c>
+      <c r="N5">
+        <v>203.97935092595901</v>
+      </c>
+      <c r="O5">
+        <v>0.92052788176195999</v>
+      </c>
+      <c r="P5">
+        <v>200</v>
+      </c>
+      <c r="Q5">
+        <v>351.11989361569903</v>
+      </c>
+      <c r="R5">
+        <v>0.89467191181134398</v>
+      </c>
+      <c r="S5">
+        <v>200</v>
+      </c>
+      <c r="T5">
+        <v>375.96359087642702</v>
+      </c>
+      <c r="U5">
+        <v>0.89093832117615002</v>
+      </c>
+      <c r="V5">
+        <v>200</v>
+      </c>
+      <c r="W5">
+        <v>241.93464410495301</v>
+      </c>
+      <c r="X5">
+        <v>0.91375859403316395</v>
+      </c>
+      <c r="Y5">
+        <v>200</v>
+      </c>
+      <c r="Z5">
+        <v>409.92092395641299</v>
+      </c>
+      <c r="AA5">
+        <v>0.89299880079965499</v>
+      </c>
+      <c r="AB5">
+        <v>200</v>
+      </c>
+      <c r="AC5">
+        <v>432.48618446230302</v>
+      </c>
+      <c r="AD5">
+        <v>0.89071062177192795</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>554.83424980361303</v>
+      </c>
+      <c r="C6">
+        <v>0.87514618351304796</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+      <c r="E6">
+        <v>515.22130026442903</v>
+      </c>
+      <c r="F6">
+        <v>0.87678531482194599</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
+      <c r="H6">
+        <v>545.77726262918895</v>
+      </c>
+      <c r="I6">
+        <v>0.87495674666998902</v>
+      </c>
+      <c r="J6">
+        <v>250</v>
+      </c>
+      <c r="K6">
+        <v>551.96170753150295</v>
+      </c>
+      <c r="L6">
+        <v>0.87457043992388495</v>
+      </c>
+      <c r="M6">
+        <v>250</v>
+      </c>
+      <c r="N6">
+        <v>273.65252176945199</v>
+      </c>
+      <c r="O6">
+        <v>0.91065040690693999</v>
+      </c>
+      <c r="P6">
+        <v>250</v>
+      </c>
+      <c r="Q6">
+        <v>428.30963281889501</v>
+      </c>
+      <c r="R6">
+        <v>0.88257361561027503</v>
+      </c>
+      <c r="S6">
+        <v>250</v>
+      </c>
+      <c r="T6">
+        <v>462.60413937647297</v>
+      </c>
+      <c r="U6">
+        <v>0.87780343166681696</v>
+      </c>
+      <c r="V6">
+        <v>250</v>
+      </c>
+      <c r="W6">
+        <v>306.76192751199801</v>
+      </c>
+      <c r="X6">
+        <v>0.90199460855382296</v>
+      </c>
+      <c r="Y6">
+        <v>250</v>
+      </c>
+      <c r="Z6">
+        <v>512.84575868140598</v>
+      </c>
+      <c r="AA6">
+        <v>0.88134592186933602</v>
+      </c>
+      <c r="AB6">
+        <v>250</v>
+      </c>
+      <c r="AC6">
+        <v>544.04313498940803</v>
+      </c>
+      <c r="AD6">
+        <v>0.87800766383880002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>671.80672468730597</v>
+      </c>
+      <c r="C7">
+        <v>0.86592681763093504</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>622.36281528802704</v>
+      </c>
+      <c r="F7">
+        <v>0.86910023870741204</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>660.69923528448805</v>
+      </c>
+      <c r="I7">
+        <v>0.86699335555228296</v>
+      </c>
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>667.56834668367901</v>
+      </c>
+      <c r="L7">
+        <v>0.86612227171303002</v>
+      </c>
+      <c r="M7">
+        <v>300</v>
+      </c>
+      <c r="N7">
+        <v>322.84862128466699</v>
+      </c>
+      <c r="O7">
+        <v>0.89875595352709303</v>
+      </c>
+      <c r="P7">
+        <v>300</v>
+      </c>
+      <c r="Q7">
+        <v>504.37676295211901</v>
+      </c>
+      <c r="R7">
+        <v>0.87526780253262004</v>
+      </c>
+      <c r="S7">
+        <v>300</v>
+      </c>
+      <c r="T7">
+        <v>546.928914356512</v>
+      </c>
+      <c r="U7">
+        <v>0.86963998504893003</v>
+      </c>
+      <c r="V7">
+        <v>300</v>
+      </c>
+      <c r="W7">
+        <v>370.91902111122698</v>
+      </c>
+      <c r="X7">
+        <v>0.893025064278271</v>
+      </c>
+      <c r="Y7">
+        <v>300</v>
+      </c>
+      <c r="Z7">
+        <v>618.30389775239098</v>
+      </c>
+      <c r="AA7">
+        <v>0.87326303546348305</v>
+      </c>
+      <c r="AB7">
+        <v>300</v>
+      </c>
+      <c r="AC7">
+        <v>657.53159401401001</v>
+      </c>
+      <c r="AD7">
+        <v>0.86961071295079695</v>
+      </c>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>350</v>
+      </c>
+      <c r="B8">
+        <v>786.59576245231995</v>
+      </c>
+      <c r="C8">
+        <v>0.85755563468421503</v>
+      </c>
+      <c r="D8">
+        <v>350</v>
+      </c>
+      <c r="E8">
+        <v>727.64210472094101</v>
+      </c>
+      <c r="F8">
+        <v>0.86121900060030798</v>
+      </c>
+      <c r="G8">
+        <v>350</v>
+      </c>
+      <c r="H8">
+        <v>773.20561591723902</v>
+      </c>
+      <c r="I8">
+        <v>0.858791752559804</v>
+      </c>
+      <c r="J8">
+        <v>350</v>
+      </c>
+      <c r="K8">
+        <v>782.02341738865596</v>
+      </c>
+      <c r="L8">
+        <v>0.85750055924927504</v>
+      </c>
+      <c r="M8">
+        <v>350</v>
+      </c>
+      <c r="N8">
+        <v>370.33557046979797</v>
+      </c>
+      <c r="O8">
+        <v>0.88910515160610704</v>
+      </c>
+      <c r="P8">
+        <v>350</v>
+      </c>
+      <c r="Q8">
+        <v>576.03392733352302</v>
+      </c>
+      <c r="R8">
+        <v>0.86784380380119597</v>
+      </c>
+      <c r="S8">
+        <v>350</v>
+      </c>
+      <c r="T8">
+        <v>627.36570959074402</v>
+      </c>
+      <c r="U8">
+        <v>0.86152198628352605</v>
+      </c>
+      <c r="V8">
+        <v>350</v>
+      </c>
+      <c r="W8">
+        <v>433.56137685496299</v>
+      </c>
+      <c r="X8">
+        <v>0.88627736781895605</v>
+      </c>
+      <c r="Y8">
+        <v>350</v>
+      </c>
+      <c r="Z8">
+        <v>719.63524287424502</v>
+      </c>
+      <c r="AA8">
+        <v>0.86607689465159399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>400</v>
+      </c>
+      <c r="B9">
+        <v>903.51977997377503</v>
+      </c>
+      <c r="C9">
+        <v>0.85004265160610704</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <v>832.07162631795904</v>
+      </c>
+      <c r="F9">
+        <v>0.85543728337939395</v>
+      </c>
+      <c r="G9">
+        <v>400</v>
+      </c>
+      <c r="H9">
+        <v>886.67608197595905</v>
+      </c>
+      <c r="I9">
+        <v>0.85127615021293901</v>
+      </c>
+      <c r="J9">
+        <v>400</v>
+      </c>
+      <c r="K9">
+        <v>897.72044104095801</v>
+      </c>
+      <c r="L9">
+        <v>0.84974270993793</v>
+      </c>
+      <c r="M9">
+        <v>400</v>
+      </c>
+      <c r="N9">
+        <v>416.011308752503</v>
+      </c>
+      <c r="O9">
+        <v>0.88326396990530898</v>
+      </c>
+      <c r="P9">
+        <v>400</v>
+      </c>
+      <c r="Q9">
+        <v>647.06518253859099</v>
+      </c>
+      <c r="R9">
+        <v>0.86096340952337802</v>
+      </c>
+      <c r="S9">
+        <v>400</v>
+      </c>
+      <c r="T9">
+        <v>706.49828702893296</v>
+      </c>
+      <c r="U9">
+        <v>0.85416757515177599</v>
+      </c>
+      <c r="V9">
+        <v>400</v>
+      </c>
+      <c r="W9">
+        <v>494.13484914735398</v>
+      </c>
+      <c r="X9">
+        <v>0.88073021673387097</v>
+      </c>
+      <c r="Y9">
+        <v>400</v>
+      </c>
+      <c r="Z9">
+        <v>822.71869539895101</v>
+      </c>
+      <c r="AA9">
+        <v>0.86021114845732105</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>450</v>
+      </c>
+      <c r="B10">
+        <v>1025.7473768289501</v>
+      </c>
+      <c r="C10">
+        <v>0.84239006858236598</v>
+      </c>
+      <c r="D10">
+        <v>450</v>
+      </c>
+      <c r="E10">
+        <v>939.67138960952502</v>
+      </c>
+      <c r="F10">
+        <v>0.84836217832548</v>
+      </c>
+      <c r="G10">
+        <v>450</v>
+      </c>
+      <c r="H10">
+        <v>1005.0572749911</v>
+      </c>
+      <c r="I10">
+        <v>0.84360870106922803</v>
+      </c>
+      <c r="J10">
+        <v>450</v>
+      </c>
+      <c r="K10">
+        <v>1018.94038302016</v>
+      </c>
+      <c r="L10">
+        <v>0.84256117054412805</v>
+      </c>
+      <c r="M10">
+        <v>450</v>
+      </c>
+      <c r="N10">
+        <v>459.04136743248898</v>
+      </c>
+      <c r="O10">
+        <v>0.87893283203832895</v>
+      </c>
+      <c r="P10">
+        <v>450</v>
+      </c>
+      <c r="Q10">
+        <v>717.42407313357</v>
+      </c>
+      <c r="R10">
+        <v>0.85528816203787605</v>
+      </c>
+      <c r="S10">
+        <v>450</v>
+      </c>
+      <c r="T10">
+        <v>788.74787124151896</v>
+      </c>
+      <c r="U10">
+        <v>0.84774544671982599</v>
+      </c>
+      <c r="V10">
+        <v>450</v>
+      </c>
+      <c r="W10">
+        <v>551.51993128489403</v>
+      </c>
+      <c r="X10">
+        <v>0.87651680437885104</v>
+      </c>
+      <c r="Y10">
+        <v>450</v>
+      </c>
+      <c r="Z10">
+        <v>928.065173116089</v>
+      </c>
+      <c r="AA10">
+        <v>0.85476172441328302</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>500</v>
+      </c>
+      <c r="B11">
+        <v>1172.6780674082599</v>
+      </c>
+      <c r="C11">
+        <v>0.82520373663464996</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <v>1068.61941145321</v>
+      </c>
+      <c r="F11">
+        <v>0.832269391083726</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>1146.73702155294</v>
+      </c>
+      <c r="I11">
+        <v>0.82745609539235199</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+      <c r="K11">
+        <v>1163.5021826867601</v>
+      </c>
+      <c r="L11">
+        <v>0.82656572099266001</v>
+      </c>
+      <c r="M11">
+        <v>500</v>
+      </c>
+      <c r="N11">
+        <v>501.600738583907</v>
+      </c>
+      <c r="O11">
+        <v>0.87489845024238799</v>
+      </c>
+      <c r="P11">
+        <v>500</v>
+      </c>
+      <c r="Q11">
+        <v>795.99244921533796</v>
+      </c>
+      <c r="R11">
+        <v>0.840952833340884</v>
+      </c>
+      <c r="S11">
+        <v>500</v>
+      </c>
+      <c r="T11">
+        <v>883.92966647894298</v>
+      </c>
+      <c r="U11">
+        <v>0.83161025564062996</v>
+      </c>
+      <c r="V11">
+        <v>500</v>
+      </c>
+      <c r="W11">
+        <v>612.63249197675395</v>
+      </c>
+      <c r="X11">
+        <v>0.87214605892080399</v>
+      </c>
+      <c r="Y11">
+        <v>500</v>
+      </c>
+      <c r="Z11">
+        <v>1054.4998507017001</v>
+      </c>
+      <c r="AA11">
+        <v>0.83865088545442101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>550</v>
+      </c>
+      <c r="B12">
+        <v>1302.8434401660099</v>
+      </c>
+      <c r="C12">
+        <v>0.81730964995242805</v>
+      </c>
+      <c r="D12">
+        <v>550</v>
+      </c>
+      <c r="E12">
+        <v>1185.0241181158499</v>
+      </c>
+      <c r="F12">
+        <v>0.82683777098812905</v>
+      </c>
+      <c r="G12">
+        <v>550</v>
+      </c>
+      <c r="H12">
+        <v>1271.8177725758501</v>
+      </c>
+      <c r="I12">
+        <v>0.82048685834994495</v>
+      </c>
+      <c r="J12">
+        <v>550</v>
+      </c>
+      <c r="K12">
+        <v>1292.2361981429799</v>
+      </c>
+      <c r="L12">
+        <v>0.81915032337350402</v>
+      </c>
+      <c r="M12">
+        <v>550</v>
+      </c>
+      <c r="N12">
+        <v>544.57796025366702</v>
+      </c>
+      <c r="O12">
+        <v>0.869409454002809</v>
+      </c>
+      <c r="P12">
+        <v>550</v>
+      </c>
+      <c r="Q12">
+        <v>864.82674176564205</v>
+      </c>
+      <c r="R12">
+        <v>0.83410259604929304</v>
+      </c>
+      <c r="S12">
+        <v>550</v>
+      </c>
+      <c r="T12">
+        <v>967.70542901181705</v>
+      </c>
+      <c r="U12">
+        <v>0.82471842860864397</v>
+      </c>
+      <c r="V12">
+        <v>550</v>
+      </c>
+      <c r="W12">
+        <v>674.46906035141296</v>
+      </c>
+      <c r="X12">
+        <v>0.86775375758880002</v>
+      </c>
+      <c r="Y12">
+        <v>550</v>
+      </c>
+      <c r="Z12">
+        <v>1168.2170029771701</v>
+      </c>
+      <c r="AA12">
+        <v>0.83278952830509201</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>600</v>
+      </c>
+      <c r="B13">
+        <v>1430.3442689347901</v>
+      </c>
+      <c r="C13">
+        <v>0.80985744098858203</v>
+      </c>
+      <c r="D13">
+        <v>600</v>
+      </c>
+      <c r="E13">
+        <v>1295.49523110785</v>
+      </c>
+      <c r="F13">
+        <v>0.82142855625906097</v>
+      </c>
+      <c r="G13">
+        <v>600</v>
+      </c>
+      <c r="H13">
+        <v>1394.20450059218</v>
+      </c>
+      <c r="I13">
+        <v>0.81419615349764396</v>
+      </c>
+      <c r="J13">
+        <v>600</v>
+      </c>
+      <c r="K13">
+        <v>1418.49475322588</v>
+      </c>
+      <c r="L13">
+        <v>0.81180695564516103</v>
+      </c>
+      <c r="M13">
+        <v>600</v>
+      </c>
+      <c r="N13">
+        <v>587.98643051884505</v>
+      </c>
+      <c r="O13">
+        <v>0.86255691600217399</v>
+      </c>
+      <c r="P13">
+        <v>600</v>
+      </c>
+      <c r="Q13">
+        <v>932.32221232221195</v>
+      </c>
+      <c r="R13">
+        <v>0.82810156816328295</v>
+      </c>
+      <c r="S13">
+        <v>600</v>
+      </c>
+      <c r="T13">
+        <v>1052.06524167721</v>
+      </c>
+      <c r="U13">
+        <v>0.81857319935891604</v>
+      </c>
+      <c r="V13">
+        <v>600</v>
+      </c>
+      <c r="W13">
+        <v>734.89127041931101</v>
+      </c>
+      <c r="X13">
+        <v>0.86281682533300097</v>
+      </c>
+      <c r="Y13">
+        <v>600</v>
+      </c>
+      <c r="Z13">
+        <v>1278.4939813557701</v>
+      </c>
+      <c r="AA13">
+        <v>0.82632110252808899</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>650</v>
+      </c>
+      <c r="B14">
+        <v>1560.7203623908899</v>
+      </c>
+      <c r="C14">
+        <v>0.80271604011870201</v>
+      </c>
+      <c r="D14">
+        <v>650</v>
+      </c>
+      <c r="E14">
+        <v>1413.80973827753</v>
+      </c>
+      <c r="F14">
+        <v>0.81460306043856401</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+      <c r="H14">
+        <v>1521.9608899423499</v>
+      </c>
+      <c r="I14">
+        <v>0.80690396769662898</v>
+      </c>
+      <c r="J14">
+        <v>650</v>
+      </c>
+      <c r="K14">
+        <v>1547.89392943239</v>
+      </c>
+      <c r="L14">
+        <v>0.80486978694726297</v>
+      </c>
+      <c r="M14">
+        <v>650</v>
+      </c>
+      <c r="N14">
+        <v>630.12222321348895</v>
+      </c>
+      <c r="O14">
+        <v>0.85708529896475105</v>
+      </c>
+      <c r="P14">
+        <v>650</v>
+      </c>
+      <c r="Q14">
+        <v>1003.16585591023</v>
+      </c>
+      <c r="R14">
+        <v>0.82317482981832102</v>
+      </c>
+      <c r="S14">
+        <v>650</v>
+      </c>
+      <c r="T14">
+        <v>1137.59452385745</v>
+      </c>
+      <c r="U14">
+        <v>0.812502619268756</v>
+      </c>
+      <c r="V14">
+        <v>650</v>
+      </c>
+      <c r="W14">
+        <v>794.22467108962098</v>
+      </c>
+      <c r="X14">
+        <v>0.85891369013909002</v>
+      </c>
+      <c r="Y14">
+        <v>650</v>
+      </c>
+      <c r="Z14">
+        <v>1392.0748952944</v>
+      </c>
+      <c r="AA14">
+        <v>0.82092569205328003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>700</v>
+      </c>
+      <c r="B15">
+        <v>1685.18699671935</v>
+      </c>
+      <c r="C15">
+        <v>0.795435251676332</v>
+      </c>
+      <c r="D15">
+        <v>700</v>
+      </c>
+      <c r="E15">
+        <v>1523.7667871204301</v>
+      </c>
+      <c r="F15">
+        <v>0.80825540418856401</v>
+      </c>
+      <c r="G15">
+        <v>700</v>
+      </c>
+      <c r="H15">
+        <v>1643.1406304524801</v>
+      </c>
+      <c r="I15">
+        <v>0.79973637413917997</v>
+      </c>
+      <c r="J15">
+        <v>700</v>
+      </c>
+      <c r="K15">
+        <v>1669.3547624675</v>
+      </c>
+      <c r="L15">
+        <v>0.79868650750951398</v>
+      </c>
+      <c r="M15">
+        <v>700</v>
+      </c>
+      <c r="N15">
+        <v>672.27031528851796</v>
+      </c>
+      <c r="O15">
+        <v>0.85307169434124597</v>
+      </c>
+      <c r="P15">
+        <v>700</v>
+      </c>
+      <c r="Q15">
+        <v>1068.4173505275401</v>
+      </c>
+      <c r="R15">
+        <v>0.81740783713528398</v>
+      </c>
+      <c r="S15">
+        <v>700</v>
+      </c>
+      <c r="T15">
+        <v>1222.3493272184401</v>
+      </c>
+      <c r="U15">
+        <v>0.80623672667859703</v>
+      </c>
+      <c r="V15">
+        <v>700</v>
+      </c>
+      <c r="W15">
+        <v>856.80111603081195</v>
+      </c>
+      <c r="X15">
+        <v>0.855497278792134</v>
+      </c>
+      <c r="Y15">
+        <v>700</v>
+      </c>
+      <c r="Z15">
+        <v>1497.5172267571199</v>
+      </c>
+      <c r="AA15">
+        <v>0.81516917644526998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>750</v>
+      </c>
+      <c r="B16">
+        <v>1805.48057259713</v>
+      </c>
+      <c r="C16">
+        <v>0.78901701675199298</v>
+      </c>
+      <c r="D16">
+        <v>750</v>
+      </c>
+      <c r="E16">
+        <v>1628.92988929889</v>
+      </c>
+      <c r="F16">
+        <v>0.80176135205237398</v>
+      </c>
+      <c r="G16">
+        <v>750</v>
+      </c>
+      <c r="H16">
+        <v>1757.08439579575</v>
+      </c>
+      <c r="I16">
+        <v>0.79359401192687495</v>
+      </c>
+      <c r="J16">
+        <v>750</v>
+      </c>
+      <c r="K16">
+        <v>1788.3377642739499</v>
+      </c>
+      <c r="L16">
+        <v>0.79070895818231202</v>
+      </c>
+      <c r="M16">
+        <v>750</v>
+      </c>
+      <c r="N16">
+        <v>715.33510570958299</v>
+      </c>
+      <c r="O16">
+        <v>0.84945752820315301</v>
+      </c>
+      <c r="P16">
+        <v>750</v>
+      </c>
+      <c r="Q16">
+        <v>1134.4426598136799</v>
+      </c>
+      <c r="R16">
+        <v>0.81176660474809703</v>
+      </c>
+      <c r="S16">
+        <v>750</v>
+      </c>
+      <c r="T16">
+        <v>1306.8208520282999</v>
+      </c>
+      <c r="U16">
+        <v>0.79901349135782895</v>
+      </c>
+      <c r="V16">
+        <v>750</v>
+      </c>
+      <c r="W16">
+        <v>919.09821399525003</v>
+      </c>
+      <c r="X16">
+        <v>0.85203053501042003</v>
+      </c>
+      <c r="Y16">
+        <v>750</v>
+      </c>
+      <c r="Z16">
+        <v>1601.95962803356</v>
+      </c>
+      <c r="AA16">
+        <v>0.80910779919128295</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>800</v>
+      </c>
+      <c r="B17">
+        <v>1923.0930501667599</v>
+      </c>
+      <c r="C17">
+        <v>0.78298735388727803</v>
+      </c>
+      <c r="D17">
+        <v>800</v>
+      </c>
+      <c r="E17">
+        <v>1732.4110865832699</v>
+      </c>
+      <c r="F17">
+        <v>0.79810407416636397</v>
+      </c>
+      <c r="G17">
+        <v>800</v>
+      </c>
+      <c r="H17">
+        <v>1874.2311264428799</v>
+      </c>
+      <c r="I17">
+        <v>0.78769053410429501</v>
+      </c>
+      <c r="J17">
+        <v>800</v>
+      </c>
+      <c r="K17">
+        <v>1905.0681051921699</v>
+      </c>
+      <c r="L17">
+        <v>0.78635874212803503</v>
+      </c>
+      <c r="M17">
+        <v>800</v>
+      </c>
+      <c r="N17">
+        <v>756.03200513794798</v>
+      </c>
+      <c r="O17">
+        <v>0.84488782450616096</v>
+      </c>
+      <c r="P17">
+        <v>800</v>
+      </c>
+      <c r="Q17">
+        <v>1197.6836661155601</v>
+      </c>
+      <c r="R17">
+        <v>0.80689338443503</v>
+      </c>
+      <c r="S17">
+        <v>800</v>
+      </c>
+      <c r="T17">
+        <v>1391.5949167569599</v>
+      </c>
+      <c r="U17">
+        <v>0.79466596536335599</v>
+      </c>
+      <c r="V17">
+        <v>800</v>
+      </c>
+      <c r="W17">
+        <v>983.88159498519894</v>
+      </c>
+      <c r="X17">
+        <v>0.84736115751857499</v>
+      </c>
+      <c r="Y17">
+        <v>800</v>
+      </c>
+      <c r="Z17">
+        <v>1703.1685555823401</v>
+      </c>
+      <c r="AA17">
+        <v>0.80400925097408404</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>850</v>
+      </c>
+      <c r="B18">
+        <v>2035.4582132564799</v>
+      </c>
+      <c r="C18">
+        <v>0.77780442274148198</v>
+      </c>
+      <c r="D18">
+        <v>850</v>
+      </c>
+      <c r="E18">
+        <v>1835.2708847602901</v>
+      </c>
+      <c r="F18">
+        <v>0.79239063491074602</v>
+      </c>
+      <c r="G18">
+        <v>850</v>
+      </c>
+      <c r="H18">
+        <v>1983.7213874455799</v>
+      </c>
+      <c r="I18">
+        <v>0.78309304492116705</v>
+      </c>
+      <c r="J18">
+        <v>850</v>
+      </c>
+      <c r="K18">
+        <v>2016.8589377498499</v>
+      </c>
+      <c r="L18">
+        <v>0.78116313938474002</v>
+      </c>
+      <c r="M18">
+        <v>850</v>
+      </c>
+      <c r="N18">
+        <v>797.16035100589704</v>
+      </c>
+      <c r="O18">
+        <v>0.84022329620106895</v>
+      </c>
+      <c r="P18">
+        <v>850</v>
+      </c>
+      <c r="Q18">
+        <v>1261.3134514933699</v>
+      </c>
+      <c r="R18">
+        <v>0.80213902229068501</v>
+      </c>
+      <c r="S18">
+        <v>850</v>
+      </c>
+      <c r="T18">
+        <v>1481.3422818791901</v>
+      </c>
+      <c r="U18">
+        <v>0.78863368322988403</v>
+      </c>
+      <c r="V18">
+        <v>850</v>
+      </c>
+      <c r="W18">
+        <v>1046.91914325946</v>
+      </c>
+      <c r="X18">
+        <v>0.84237612274601303</v>
+      </c>
+      <c r="Y18">
+        <v>850</v>
+      </c>
+      <c r="Z18">
+        <v>1801.2215492508701</v>
+      </c>
+      <c r="AA18">
+        <v>0.79952403639226099</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>900</v>
+      </c>
+      <c r="B19">
+        <v>2146.8206686929998</v>
+      </c>
+      <c r="C19">
+        <v>0.77309441118838296</v>
+      </c>
+      <c r="D19">
+        <v>900</v>
+      </c>
+      <c r="E19">
+        <v>1940.7954935769701</v>
+      </c>
+      <c r="F19">
+        <v>0.78717556462939398</v>
+      </c>
+      <c r="G19">
+        <v>900</v>
+      </c>
+      <c r="H19">
+        <v>2091.97778600518</v>
+      </c>
+      <c r="I19">
+        <v>0.77925450655808204</v>
+      </c>
+      <c r="J19">
+        <v>900</v>
+      </c>
+      <c r="K19">
+        <v>2127.42168674698</v>
+      </c>
+      <c r="L19">
+        <v>0.77686619359369302</v>
+      </c>
+      <c r="M19">
+        <v>900</v>
+      </c>
+      <c r="N19">
+        <v>835.07212106881002</v>
+      </c>
+      <c r="O19">
+        <v>0.83760041710085098</v>
+      </c>
+      <c r="P19">
+        <v>900</v>
+      </c>
+      <c r="Q19">
+        <v>1330.38990393671</v>
+      </c>
+      <c r="R19">
+        <v>0.79733185002491802</v>
+      </c>
+      <c r="S19">
+        <v>900</v>
+      </c>
+      <c r="T19">
+        <v>1571.65999109924</v>
+      </c>
+      <c r="U19">
+        <v>0.784229701375045</v>
+      </c>
+      <c r="V19">
+        <v>900</v>
+      </c>
+      <c r="W19">
+        <v>1109.05864803328</v>
+      </c>
+      <c r="X19">
+        <v>0.83748237302917705</v>
+      </c>
+      <c r="Y19">
+        <v>900</v>
+      </c>
+      <c r="Z19">
+        <v>1903.6560878646901</v>
+      </c>
+      <c r="AA19">
+        <v>0.79487274601304803</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>950</v>
+      </c>
+      <c r="B20">
+        <v>2275.8305139358699</v>
+      </c>
+      <c r="C20">
+        <v>0.76708127803325399</v>
+      </c>
+      <c r="D20">
+        <v>950</v>
+      </c>
+      <c r="E20">
+        <v>2056.4973067404198</v>
+      </c>
+      <c r="F20">
+        <v>0.78132634814470803</v>
+      </c>
+      <c r="G20">
+        <v>950</v>
+      </c>
+      <c r="H20">
+        <v>2220.2090373280898</v>
+      </c>
+      <c r="I20">
+        <v>0.77272884621919102</v>
+      </c>
+      <c r="J20">
+        <v>950</v>
+      </c>
+      <c r="K20">
+        <v>2256.0217200351299</v>
+      </c>
+      <c r="L20">
+        <v>0.77003606095958599</v>
+      </c>
+      <c r="M20">
+        <v>950</v>
+      </c>
+      <c r="N20">
+        <v>873.81417790424302</v>
+      </c>
+      <c r="O20">
+        <v>0.83399970126177903</v>
+      </c>
+      <c r="P20">
+        <v>950</v>
+      </c>
+      <c r="Q20">
+        <v>1401.6749355030699</v>
+      </c>
+      <c r="R20">
+        <v>0.79234865581959002</v>
+      </c>
+      <c r="S20">
+        <v>950</v>
+      </c>
+      <c r="T20">
+        <v>1678.5788129047501</v>
+      </c>
+      <c r="U20">
+        <v>0.77840122666726996</v>
+      </c>
+      <c r="V20">
+        <v>950</v>
+      </c>
+      <c r="W20">
+        <v>1169.8616977225599</v>
+      </c>
+      <c r="X20">
+        <v>0.83264065473223903</v>
+      </c>
+      <c r="Y20">
+        <v>950</v>
+      </c>
+      <c r="Z20">
+        <v>2016.2831858407001</v>
+      </c>
+      <c r="AA20">
+        <v>0.78984583833590005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="B21">
+        <v>2395.0627331298701</v>
+      </c>
+      <c r="C21">
+        <v>0.761944608836988</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>2167.5740371336501</v>
+      </c>
+      <c r="F21">
+        <v>0.77687394521339204</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>2336.82051282051</v>
+      </c>
+      <c r="I21">
+        <v>0.768083466892442</v>
+      </c>
+      <c r="J21">
+        <v>1000</v>
+      </c>
+      <c r="K21">
+        <v>2373.5327228429801</v>
+      </c>
+      <c r="L21">
+        <v>0.76450151068095296</v>
+      </c>
+      <c r="M21">
+        <v>1000</v>
+      </c>
+      <c r="N21">
+        <v>914.57576640445404</v>
+      </c>
+      <c r="O21">
+        <v>0.83025492564108305</v>
+      </c>
+      <c r="P21">
+        <v>1000</v>
+      </c>
+      <c r="Q21">
+        <v>1472.9242479536999</v>
+      </c>
+      <c r="R21">
+        <v>0.78769410905219195</v>
+      </c>
+      <c r="S21">
+        <v>1000</v>
+      </c>
+      <c r="T21">
+        <v>1784.3845133581699</v>
+      </c>
+      <c r="U21">
+        <v>0.77291035446493295</v>
+      </c>
+      <c r="V21">
+        <v>1000</v>
+      </c>
+      <c r="W21">
+        <v>1230.0661790316899</v>
+      </c>
+      <c r="X21">
+        <v>0.82768761751313802</v>
+      </c>
+      <c r="Y21">
+        <v>1000</v>
+      </c>
+      <c r="Z21">
+        <v>2120.87380827265</v>
+      </c>
+      <c r="AA21">
+        <v>0.78575539003035499</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/newCDC.xlsx
+++ b/newCDC.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Gcc" sheetId="2" r:id="rId2"/>
     <sheet name="periodic" sheetId="6" r:id="rId3"/>
-    <sheet name="Emacs-2min" sheetId="3" r:id="rId4"/>
+    <sheet name="GCC-2min" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
   <si>
     <t>2min</t>
   </si>
@@ -117,6 +117,9 @@
   </si>
   <si>
     <t>MaxBoundary = 4*i</t>
+  </si>
+  <si>
+    <t>minBoundary = i</t>
   </si>
 </sst>
 </file>
@@ -618,8 +621,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337111656"/>
-        <c:axId val="337110088"/>
+        <c:axId val="319153856"/>
+        <c:axId val="320234592"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1354,7 +1357,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337111656"/>
+        <c:axId val="319153856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1466,12 +1469,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337110088"/>
+        <c:crossAx val="320234592"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337110088"/>
+        <c:axId val="320234592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.70000000000000007"/>
@@ -1584,7 +1587,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337111656"/>
+        <c:crossAx val="319153856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2028,11 +2031,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337109304"/>
-        <c:axId val="337106168"/>
+        <c:axId val="320232240"/>
+        <c:axId val="320237728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337109304"/>
+        <c:axId val="320232240"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2089,12 +2092,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337106168"/>
+        <c:crossAx val="320237728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337106168"/>
+        <c:axId val="320237728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -2152,7 +2155,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337109304"/>
+        <c:crossAx val="320232240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2278,7 +2281,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.13216447944006998"/>
+          <c:y val="0.16708333333333336"/>
+          <c:w val="0.61369160104986875"/>
+          <c:h val="0.62271617089530473"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2930,6 +2943,168 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>2Win</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>periodic!$V$7:$V$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>589.03169347208996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>892.94585873072697</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1196.74483421432</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1481.5145746579401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1785.2516129032199</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2089.2835570469701</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2392.3400576368799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2698.1863488623999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2982.5461077844302</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3285.5224274406301</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3588.5100864553301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3891.2906250000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4199.7065767284903</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4479.1834532374096</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4789.2807692307597</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>5092.8957055214696</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5390.53246753246</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5698.9153318077797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5986.6009615384601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>periodic!$W$7:$W$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="19"/>
+                <c:pt idx="0">
+                  <c:v>0.99832277690644</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.99683347346999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.995406809919266</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.995809953799068</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.99495548151199797</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.99278998854011302</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.992042325288926</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.99018079637780798</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.99159099688165797</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.98857103162270199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.98771655933563096</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.98687734548225803</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.98465724337924498</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.98737203996424705</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.982429512059382</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.98142245543533502</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.98151400603752104</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.97959144339161197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.98050694941347305</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -2938,11 +3113,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="337651184"/>
-        <c:axId val="337653928"/>
+        <c:axId val="320234200"/>
+        <c:axId val="320238120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="337651184"/>
+        <c:axId val="320234200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -3061,14 +3236,15 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337653928"/>
+        <c:crossAx val="320238120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="337653928"/>
+        <c:axId val="320238120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3179,7 +3355,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="337651184"/>
+        <c:crossAx val="320234200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4997,16 +5173,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:rowOff>147637</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8043,10 +8219,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J5" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:F25"/>
+    <sheetView tabSelected="1" topLeftCell="Q4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U7" sqref="U7:W25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8055,10 +8231,18 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="17.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>25</v>
       </c>
@@ -8066,7 +8250,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -8079,8 +8263,32 @@
       <c r="J5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="K5" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" t="s">
+        <v>30</v>
+      </c>
+      <c r="O5" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" t="s">
+        <v>18</v>
+      </c>
+      <c r="R5" t="s">
+        <v>9</v>
+      </c>
+      <c r="S5" t="s">
+        <v>19</v>
+      </c>
+      <c r="U5" t="s">
+        <v>9</v>
+      </c>
+      <c r="V5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
       </c>
@@ -8123,8 +8331,35 @@
       <c r="N6" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O6" t="s">
+        <v>13</v>
+      </c>
+      <c r="P6" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" t="s">
+        <v>13</v>
+      </c>
+      <c r="S6" t="s">
+        <v>12</v>
+      </c>
+      <c r="T6" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" t="s">
+        <v>13</v>
+      </c>
+      <c r="V6" t="s">
+        <v>12</v>
+      </c>
+      <c r="W6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>100</v>
       </c>
@@ -8167,8 +8402,35 @@
       <c r="N7">
         <v>0.999703665156081</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O7">
+        <v>100</v>
+      </c>
+      <c r="P7">
+        <v>190.00732433050999</v>
+      </c>
+      <c r="Q7">
+        <v>0.99912504928875601</v>
+      </c>
+      <c r="R7">
+        <v>100</v>
+      </c>
+      <c r="S7">
+        <v>398.97885293175199</v>
+      </c>
+      <c r="T7">
+        <v>0.99844604898920897</v>
+      </c>
+      <c r="U7">
+        <v>100</v>
+      </c>
+      <c r="V7">
+        <v>589.03169347208996</v>
+      </c>
+      <c r="W7">
+        <v>0.99832277690644</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>150</v>
       </c>
@@ -8211,8 +8473,35 @@
       <c r="N8">
         <v>0.99955108081910404</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O8">
+        <v>150</v>
+      </c>
+      <c r="P8">
+        <v>285.010986495765</v>
+      </c>
+      <c r="Q8">
+        <v>0.99917724919351103</v>
+      </c>
+      <c r="R8">
+        <v>150</v>
+      </c>
+      <c r="S8">
+        <v>589.03169347208996</v>
+      </c>
+      <c r="T8">
+        <v>0.99832277690644</v>
+      </c>
+      <c r="U8">
+        <v>150</v>
+      </c>
+      <c r="V8">
+        <v>892.94585873072697</v>
+      </c>
+      <c r="W8">
+        <v>0.99683347346999995</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>200</v>
       </c>
@@ -8255,8 +8544,35 @@
       <c r="N9">
         <v>0.99924992752243902</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O9">
+        <v>200</v>
+      </c>
+      <c r="P9">
+        <v>398.97885293175199</v>
+      </c>
+      <c r="Q9">
+        <v>0.99844604898920897</v>
+      </c>
+      <c r="R9">
+        <v>200</v>
+      </c>
+      <c r="S9">
+        <v>797.957705863505</v>
+      </c>
+      <c r="T9">
+        <v>0.99716434055860304</v>
+      </c>
+      <c r="U9">
+        <v>200</v>
+      </c>
+      <c r="V9">
+        <v>1196.74483421432</v>
+      </c>
+      <c r="W9">
+        <v>0.995406809919266</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>250</v>
       </c>
@@ -8299,8 +8615,35 @@
       <c r="N10">
         <v>0.99661664309640197</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O10">
+        <v>250</v>
+      </c>
+      <c r="P10">
+        <v>494.03412021424299</v>
+      </c>
+      <c r="Q10">
+        <v>0.99814088031525505</v>
+      </c>
+      <c r="R10">
+        <v>250</v>
+      </c>
+      <c r="S10">
+        <v>987.87227290757596</v>
+      </c>
+      <c r="T10">
+        <v>0.99655882166344201</v>
+      </c>
+      <c r="U10">
+        <v>250</v>
+      </c>
+      <c r="V10">
+        <v>1481.5145746579401</v>
+      </c>
+      <c r="W10">
+        <v>0.995809953799068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>300</v>
       </c>
@@ -8343,8 +8686,35 @@
       <c r="N11">
         <v>0.99912384467556903</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O11">
+        <v>300</v>
+      </c>
+      <c r="P11">
+        <v>589.03169347208996</v>
+      </c>
+      <c r="Q11">
+        <v>0.99832277690644</v>
+      </c>
+      <c r="R11">
+        <v>300</v>
+      </c>
+      <c r="S11">
+        <v>1196.74483421432</v>
+      </c>
+      <c r="T11">
+        <v>0.995406809919266</v>
+      </c>
+      <c r="U11">
+        <v>300</v>
+      </c>
+      <c r="V11">
+        <v>1785.2516129032199</v>
+      </c>
+      <c r="W11">
+        <v>0.99495548151199797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>350</v>
       </c>
@@ -8387,8 +8757,35 @@
       <c r="N12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O12">
+        <v>350</v>
+      </c>
+      <c r="P12">
+        <v>683.995056303213</v>
+      </c>
+      <c r="Q12">
+        <v>0.99805575431673099</v>
+      </c>
+      <c r="R12">
+        <v>350</v>
+      </c>
+      <c r="S12">
+        <v>1386.65144766147</v>
+      </c>
+      <c r="T12">
+        <v>0.99523896714859195</v>
+      </c>
+      <c r="U12">
+        <v>350</v>
+      </c>
+      <c r="V12">
+        <v>2089.2835570469701</v>
+      </c>
+      <c r="W12">
+        <v>0.99278998854011302</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>400</v>
       </c>
@@ -8431,8 +8828,35 @@
       <c r="N13">
         <v>0.99460574215013797</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>400</v>
+      </c>
+      <c r="P13">
+        <v>797.957705863505</v>
+      </c>
+      <c r="Q13">
+        <v>0.99716434055860304</v>
+      </c>
+      <c r="R13">
+        <v>400</v>
+      </c>
+      <c r="S13">
+        <v>1595.4042280589299</v>
+      </c>
+      <c r="T13">
+        <v>0.99460574215013797</v>
+      </c>
+      <c r="U13">
+        <v>400</v>
+      </c>
+      <c r="V13">
+        <v>2392.3400576368799</v>
+      </c>
+      <c r="W13">
+        <v>0.992042325288926</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>450</v>
       </c>
@@ -8475,8 +8899,35 @@
       <c r="N14">
         <v>0.99308311108220004</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>450</v>
+      </c>
+      <c r="P14">
+        <v>892.94585873072697</v>
+      </c>
+      <c r="Q14">
+        <v>0.99683347346999995</v>
+      </c>
+      <c r="R14">
+        <v>450</v>
+      </c>
+      <c r="S14">
+        <v>1785.2516129032199</v>
+      </c>
+      <c r="T14">
+        <v>0.99495548151199797</v>
+      </c>
+      <c r="U14">
+        <v>450</v>
+      </c>
+      <c r="V14">
+        <v>2698.1863488623999</v>
+      </c>
+      <c r="W14">
+        <v>0.99018079637780798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>500</v>
       </c>
@@ -8519,8 +8970,35 @@
       <c r="N15">
         <v>0.99388297423814198</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>500</v>
+      </c>
+      <c r="P15">
+        <v>987.87227290757596</v>
+      </c>
+      <c r="Q15">
+        <v>0.99655882166344201</v>
+      </c>
+      <c r="R15">
+        <v>500</v>
+      </c>
+      <c r="S15">
+        <v>1993.935948759</v>
+      </c>
+      <c r="T15">
+        <v>0.99332403371953204</v>
+      </c>
+      <c r="U15">
+        <v>500</v>
+      </c>
+      <c r="V15">
+        <v>2982.5461077844302</v>
+      </c>
+      <c r="W15">
+        <v>0.99159099688165797</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>550</v>
       </c>
@@ -8563,8 +9041,35 @@
       <c r="N16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O16">
+        <v>550</v>
+      </c>
+      <c r="P16">
+        <v>1083.26489778164</v>
+      </c>
+      <c r="Q16">
+        <v>0.99693144867584904</v>
+      </c>
+      <c r="R16">
+        <v>550</v>
+      </c>
+      <c r="S16">
+        <v>2184.58421052631</v>
+      </c>
+      <c r="T16">
+        <v>0.99141672950732096</v>
+      </c>
+      <c r="U16">
+        <v>550</v>
+      </c>
+      <c r="V16">
+        <v>3285.5224274406301</v>
+      </c>
+      <c r="W16">
+        <v>0.98857103162270199</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>600</v>
       </c>
@@ -8607,8 +9112,35 @@
       <c r="N17">
         <v>0.998269372388499</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O17">
+        <v>600</v>
+      </c>
+      <c r="P17">
+        <v>1196.74483421432</v>
+      </c>
+      <c r="Q17">
+        <v>0.995406809919266</v>
+      </c>
+      <c r="R17">
+        <v>600</v>
+      </c>
+      <c r="S17">
+        <v>2392.3400576368799</v>
+      </c>
+      <c r="T17">
+        <v>0.992042325288926</v>
+      </c>
+      <c r="U17">
+        <v>600</v>
+      </c>
+      <c r="V17">
+        <v>3588.5100864553301</v>
+      </c>
+      <c r="W17">
+        <v>0.98771655933563096</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>650</v>
       </c>
@@ -8651,8 +9183,35 @@
       <c r="N18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O18">
+        <v>650</v>
+      </c>
+      <c r="P18">
+        <v>1291.71473029045</v>
+      </c>
+      <c r="Q18">
+        <v>0.99555176503939402</v>
+      </c>
+      <c r="R18">
+        <v>650</v>
+      </c>
+      <c r="S18">
+        <v>2583.42946058091</v>
+      </c>
+      <c r="T18">
+        <v>0.99271249175843801</v>
+      </c>
+      <c r="U18">
+        <v>650</v>
+      </c>
+      <c r="V18">
+        <v>3891.2906250000001</v>
+      </c>
+      <c r="W18">
+        <v>0.98687734548225803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>700</v>
       </c>
@@ -8695,8 +9254,35 @@
       <c r="N19">
         <v>0.98938896397644405</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O19">
+        <v>700</v>
+      </c>
+      <c r="P19">
+        <v>1387.4239554317501</v>
+      </c>
+      <c r="Q19">
+        <v>0.99468203431862601</v>
+      </c>
+      <c r="R19">
+        <v>700</v>
+      </c>
+      <c r="S19">
+        <v>2791.9573991031298</v>
+      </c>
+      <c r="T19">
+        <v>0.99027997619684305</v>
+      </c>
+      <c r="U19">
+        <v>700</v>
+      </c>
+      <c r="V19">
+        <v>4199.7065767284903</v>
+      </c>
+      <c r="W19">
+        <v>0.98465724337924498</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>750</v>
       </c>
@@ -8739,8 +9325,35 @@
       <c r="N20">
         <v>0.98898742624755698</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O20">
+        <v>750</v>
+      </c>
+      <c r="P20">
+        <v>1482.3964285714201</v>
+      </c>
+      <c r="Q20">
+        <v>0.995809953799068</v>
+      </c>
+      <c r="R20">
+        <v>750</v>
+      </c>
+      <c r="S20">
+        <v>2982.5461077844302</v>
+      </c>
+      <c r="T20">
+        <v>0.99159099688165797</v>
+      </c>
+      <c r="U20">
+        <v>750</v>
+      </c>
+      <c r="V20">
+        <v>4479.1834532374096</v>
+      </c>
+      <c r="W20">
+        <v>0.98737203996424705</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>800</v>
       </c>
@@ -8783,8 +9396,35 @@
       <c r="N21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O21">
+        <v>800</v>
+      </c>
+      <c r="P21">
+        <v>1596.42692307692</v>
+      </c>
+      <c r="Q21">
+        <v>0.99396488793483495</v>
+      </c>
+      <c r="R21">
+        <v>800</v>
+      </c>
+      <c r="S21">
+        <v>3192.8538461538401</v>
+      </c>
+      <c r="T21">
+        <v>0.98819719999710898</v>
+      </c>
+      <c r="U21">
+        <v>800</v>
+      </c>
+      <c r="V21">
+        <v>4789.2807692307597</v>
+      </c>
+      <c r="W21">
+        <v>0.982429512059382</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>850</v>
       </c>
@@ -8827,8 +9467,35 @@
       <c r="N22">
         <v>0.987060045148902</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O22">
+        <v>850</v>
+      </c>
+      <c r="P22">
+        <v>1690.7169042769799</v>
+      </c>
+      <c r="Q22">
+        <v>0.99405643853702097</v>
+      </c>
+      <c r="R22">
+        <v>850</v>
+      </c>
+      <c r="S22">
+        <v>3379.1397557666201</v>
+      </c>
+      <c r="T22">
+        <v>0.99046950200487704</v>
+      </c>
+      <c r="U22">
+        <v>850</v>
+      </c>
+      <c r="V22">
+        <v>5092.8957055214696</v>
+      </c>
+      <c r="W22">
+        <v>0.98142245543533502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>900</v>
       </c>
@@ -8871,8 +9538,35 @@
       <c r="N23">
         <v>0.98858267621684004</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O23">
+        <v>900</v>
+      </c>
+      <c r="P23">
+        <v>1786.53228120516</v>
+      </c>
+      <c r="Q23">
+        <v>0.99495548151199797</v>
+      </c>
+      <c r="R23">
+        <v>900</v>
+      </c>
+      <c r="S23">
+        <v>3588.5100864553301</v>
+      </c>
+      <c r="T23">
+        <v>0.98771655933563096</v>
+      </c>
+      <c r="U23">
+        <v>900</v>
+      </c>
+      <c r="V23">
+        <v>5390.53246753246</v>
+      </c>
+      <c r="W23">
+        <v>0.98151400603752104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>950</v>
       </c>
@@ -8915,8 +9609,35 @@
       <c r="N24">
         <v>0.99675718130151203</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O24">
+        <v>950</v>
+      </c>
+      <c r="P24">
+        <v>1899.6384439359199</v>
+      </c>
+      <c r="Q24">
+        <v>0.99332403371953204</v>
+      </c>
+      <c r="R24">
+        <v>950</v>
+      </c>
+      <c r="S24">
+        <v>3796.3810975609699</v>
+      </c>
+      <c r="T24">
+        <v>0.98722066024045596</v>
+      </c>
+      <c r="U24">
+        <v>950</v>
+      </c>
+      <c r="V24">
+        <v>5698.9153318077797</v>
+      </c>
+      <c r="W24">
+        <v>0.97959144339161197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1000</v>
       </c>
@@ -8958,6 +9679,33 @@
       </c>
       <c r="N25">
         <v>0.98617666214535105</v>
+      </c>
+      <c r="O25">
+        <v>1000</v>
+      </c>
+      <c r="P25">
+        <v>1995.5336538461499</v>
+      </c>
+      <c r="Q25">
+        <v>0.99252296595040301</v>
+      </c>
+      <c r="R25">
+        <v>1000</v>
+      </c>
+      <c r="S25">
+        <v>3991.0673076922999</v>
+      </c>
+      <c r="T25">
+        <v>0.98531335602824499</v>
+      </c>
+      <c r="U25">
+        <v>1000</v>
+      </c>
+      <c r="V25">
+        <v>5986.6009615384601</v>
+      </c>
+      <c r="W25">
+        <v>0.98050694941347305</v>
       </c>
     </row>
   </sheetData>
@@ -8970,8 +9718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="AB3" sqref="AB3:AD7"/>
+    <sheetView topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="V1" sqref="V1:AD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/newCDC.xlsx
+++ b/newCDC.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Gcc" sheetId="2" r:id="rId2"/>
-    <sheet name="periodic" sheetId="6" r:id="rId3"/>
-    <sheet name="GCC-2min" sheetId="3" r:id="rId4"/>
+    <sheet name="Emacs" sheetId="7" r:id="rId2"/>
+    <sheet name="Gcc" sheetId="2" r:id="rId3"/>
+    <sheet name="periodic" sheetId="6" r:id="rId4"/>
+    <sheet name="GCC-2min" sheetId="3" r:id="rId5"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="31">
   <si>
     <t>2min</t>
   </si>
@@ -621,8 +623,8 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="319153856"/>
-        <c:axId val="320234592"/>
+        <c:axId val="313142952"/>
+        <c:axId val="313141776"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredScatterSeries>
@@ -1357,7 +1359,7 @@
         </c:extLst>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="319153856"/>
+        <c:axId val="313142952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1469,12 +1471,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320234592"/>
+        <c:crossAx val="313141776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320234592"/>
+        <c:axId val="313141776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.70000000000000007"/>
@@ -1587,7 +1589,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="319153856"/>
+        <c:crossAx val="313142952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2031,11 +2033,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320232240"/>
-        <c:axId val="320237728"/>
+        <c:axId val="313146872"/>
+        <c:axId val="313144520"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320232240"/>
+        <c:axId val="313146872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2092,12 +2094,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320237728"/>
+        <c:crossAx val="313144520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320237728"/>
+        <c:axId val="313144520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.30000000000000004"/>
@@ -2155,7 +2157,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320232240"/>
+        <c:crossAx val="313146872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2249,7 +2251,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3113,11 +3114,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320234200"/>
-        <c:axId val="320238120"/>
+        <c:axId val="313144912"/>
+        <c:axId val="313142560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320234200"/>
+        <c:axId val="313144912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -3169,7 +3170,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3236,12 +3236,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320238120"/>
+        <c:crossAx val="313142560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320238120"/>
+        <c:axId val="313142560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3288,7 +3288,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3355,7 +3354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320234200"/>
+        <c:crossAx val="313144912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3369,7 +3368,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7081,8 +7079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:N2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3:D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7150,7 +7148,7 @@
         <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
         <v>3</v>
@@ -7161,28 +7159,28 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>101.976054604453</v>
+        <v>101.289522129917</v>
       </c>
       <c r="C3">
-        <v>0.92257292893711396</v>
+        <v>0.61636281328198295</v>
       </c>
       <c r="D3">
         <v>100</v>
       </c>
       <c r="E3">
-        <v>215.33822666331201</v>
+        <v>212.06472592534999</v>
       </c>
       <c r="F3">
-        <v>0.91597665452836097</v>
+        <v>0.57678603720284605</v>
       </c>
       <c r="G3">
         <v>100</v>
       </c>
       <c r="H3">
-        <v>32.9150356037728</v>
+        <v>31.144103391031699</v>
       </c>
       <c r="I3">
-        <v>0.95450623952292502</v>
+        <v>0.69216190227166097</v>
       </c>
       <c r="J3">
         <v>100</v>
@@ -7194,10 +7192,10 @@
         <v>25</v>
       </c>
       <c r="M3">
-        <v>193.04384664265999</v>
+        <v>192.868344929568</v>
       </c>
       <c r="N3">
-        <v>0.90789769702564305</v>
+        <v>0.579841972210275</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -7205,28 +7203,28 @@
         <v>150</v>
       </c>
       <c r="B4">
-        <v>146.59312491892501</v>
+        <v>147.386220899607</v>
       </c>
       <c r="C4">
-        <v>0.918931862200978</v>
+        <v>0.58897669568149802</v>
       </c>
       <c r="D4">
         <v>150</v>
       </c>
       <c r="E4">
-        <v>329.92526158445401</v>
+        <v>324.99384505420301</v>
       </c>
       <c r="F4">
-        <v>0.89549737082049596</v>
+        <v>0.53780928042891696</v>
       </c>
       <c r="G4">
         <v>150</v>
       </c>
       <c r="H4">
-        <v>48.139421553225297</v>
+        <v>46.047491651967903</v>
       </c>
       <c r="I4">
-        <v>0.94702695298341699</v>
+        <v>0.66312292896660896</v>
       </c>
       <c r="J4">
         <v>150</v>
@@ -7238,10 +7236,10 @@
         <v>37</v>
       </c>
       <c r="M4">
-        <v>289.10450968553903</v>
+        <v>289.83099165139402</v>
       </c>
       <c r="N4">
-        <v>0.88434063094644799</v>
+        <v>0.53550591252541402</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -7249,28 +7247,28 @@
         <v>200</v>
       </c>
       <c r="B5">
-        <v>208.54458083898601</v>
+        <v>211.42240850409701</v>
       </c>
       <c r="C5">
-        <v>0.89089857200299005</v>
+        <v>0.54558992072646195</v>
       </c>
       <c r="D5">
         <v>200</v>
       </c>
       <c r="E5">
-        <v>439.60601864098197</v>
+        <v>434.758034528552</v>
       </c>
       <c r="F5">
-        <v>0.88852969118113401</v>
+        <v>0.51292071302197295</v>
       </c>
       <c r="G5">
         <v>200</v>
       </c>
       <c r="H5">
-        <v>68.818411232254704</v>
+        <v>67.4266977533551</v>
       </c>
       <c r="I5">
-        <v>0.94302453334541503</v>
+        <v>0.64369211492219203</v>
       </c>
       <c r="J5">
         <v>200</v>
@@ -7282,10 +7280,10 @@
         <v>50</v>
       </c>
       <c r="M5">
-        <v>392.46742422137601</v>
+        <v>396.68088406358999</v>
       </c>
       <c r="N5">
-        <v>0.872039978536154</v>
+        <v>0.51001039182241104</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -7293,28 +7291,28 @@
         <v>250</v>
       </c>
       <c r="B6">
-        <v>261.57954187730297</v>
+        <v>260.84650688424199</v>
       </c>
       <c r="C6">
-        <v>0.88299004394708203</v>
+        <v>0.52409992522286497</v>
       </c>
       <c r="D6">
         <v>250</v>
       </c>
       <c r="E6">
-        <v>554.83424980361303</v>
+        <v>546.961388735735</v>
       </c>
       <c r="F6">
-        <v>0.87514618351304796</v>
+        <v>0.49207056908820701</v>
       </c>
       <c r="G6">
         <v>250</v>
       </c>
       <c r="H6">
-        <v>87.987193781260302</v>
+        <v>87.309191962833097</v>
       </c>
       <c r="I6">
-        <v>0.93914886507792605</v>
+        <v>0.62726811757115997</v>
       </c>
       <c r="J6">
         <v>250</v>
@@ -7326,10 +7324,10 @@
         <v>62</v>
       </c>
       <c r="M6">
-        <v>496.11322808927599</v>
+        <v>495.97430536617799</v>
       </c>
       <c r="N6">
-        <v>0.85775501766944495</v>
+        <v>0.48321506857014301</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -7337,28 +7335,28 @@
         <v>300</v>
       </c>
       <c r="B7">
-        <v>306.898551984096</v>
+        <v>294.90653910944098</v>
       </c>
       <c r="C7">
-        <v>0.87714153537286998</v>
+        <v>0.51606507932241097</v>
       </c>
       <c r="D7">
         <v>300</v>
       </c>
       <c r="E7">
-        <v>671.80672468730597</v>
+        <v>653.164940843159</v>
       </c>
       <c r="F7">
-        <v>0.86592681763093504</v>
+        <v>0.476382949347044</v>
       </c>
       <c r="G7">
         <v>300</v>
       </c>
       <c r="H7">
-        <v>110.465719145275</v>
+        <v>110.624706434945</v>
       </c>
       <c r="I7">
-        <v>0.93521847533073499</v>
+        <v>0.61202790824405695</v>
       </c>
       <c r="J7">
         <v>300</v>
@@ -7370,10 +7368,10 @@
         <v>75</v>
       </c>
       <c r="M7">
-        <v>588.24352461064302</v>
+        <v>579.30809930809903</v>
       </c>
       <c r="N7">
-        <v>0.84867383591201495</v>
+        <v>0.47351010835353402</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -7381,28 +7379,28 @@
         <v>350</v>
       </c>
       <c r="B8">
-        <v>373.48844587806002</v>
+        <v>364.265622218266</v>
       </c>
       <c r="C8">
-        <v>0.87096324670396796</v>
+        <v>0.49717386416953302</v>
       </c>
       <c r="D8">
         <v>350</v>
       </c>
       <c r="E8">
-        <v>786.59576245231995</v>
+        <v>762.129670585496</v>
       </c>
       <c r="F8">
-        <v>0.85755563468421503</v>
+        <v>0.46198587665193902</v>
       </c>
       <c r="G8">
         <v>350</v>
       </c>
       <c r="H8">
-        <v>136.14055377261201</v>
+        <v>137.564312667557</v>
       </c>
       <c r="I8">
-        <v>0.93150520172616802</v>
+        <v>0.59915298399867001</v>
       </c>
       <c r="J8">
         <v>350</v>
@@ -7414,10 +7412,10 @@
         <v>87</v>
       </c>
       <c r="M8">
-        <v>699.93459518382701</v>
+        <v>698.05279542837604</v>
       </c>
       <c r="N8">
-        <v>0.84116895840884298</v>
+        <v>0.45366563746285499</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -7425,28 +7423,28 @@
         <v>400</v>
       </c>
       <c r="B9">
-        <v>399.453673985889</v>
+        <v>423.85488820124999</v>
       </c>
       <c r="C9">
-        <v>0.85364835821402596</v>
+        <v>0.47832859052431898</v>
       </c>
       <c r="D9">
         <v>400</v>
       </c>
       <c r="E9">
-        <v>903.51977997377503</v>
+        <v>873.343470721622</v>
       </c>
       <c r="F9">
-        <v>0.85004265160610704</v>
+        <v>0.449405326282452</v>
       </c>
       <c r="G9">
         <v>400</v>
       </c>
       <c r="H9">
-        <v>165.444675431148</v>
+        <v>169.37397818753701</v>
       </c>
       <c r="I9">
-        <v>0.92124258817732796</v>
+        <v>0.58049242331678097</v>
       </c>
       <c r="J9">
         <v>400</v>
@@ -7458,10 +7456,10 @@
         <v>100</v>
       </c>
       <c r="M9">
-        <v>791.70968193918998</v>
+        <v>807.31128702128103</v>
       </c>
       <c r="N9">
-        <v>0.82558629145523699</v>
+        <v>0.435016989804895</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -7469,28 +7467,28 @@
         <v>450</v>
       </c>
       <c r="B10">
-        <v>438.60278821374197</v>
+        <v>444.26278006215301</v>
       </c>
       <c r="C10">
-        <v>0.86172214797027902</v>
+        <v>0.47973796234751298</v>
       </c>
       <c r="D10">
         <v>450</v>
       </c>
       <c r="E10">
-        <v>1025.7473768289501</v>
+        <v>991.25779688730097</v>
       </c>
       <c r="F10">
-        <v>0.84239006858236598</v>
+        <v>0.438782146836878</v>
       </c>
       <c r="G10">
         <v>450</v>
       </c>
       <c r="H10">
-        <v>194.716252911905</v>
+        <v>202.77918522326701</v>
       </c>
       <c r="I10">
-        <v>0.91296665458499404</v>
+        <v>0.566695950304973</v>
       </c>
       <c r="J10">
         <v>450</v>
@@ -7502,10 +7500,10 @@
         <v>112</v>
       </c>
       <c r="M10">
-        <v>883.95732298738994</v>
+        <v>882.97766749379605</v>
       </c>
       <c r="N10">
-        <v>0.82362488390268196</v>
+        <v>0.43574615850797599</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -7513,28 +7511,28 @@
         <v>500</v>
       </c>
       <c r="B11">
-        <v>520.27844278295402</v>
+        <v>527.12792850817095</v>
       </c>
       <c r="C11">
-        <v>0.84940864698486696</v>
+        <v>0.45472666024788799</v>
       </c>
       <c r="D11">
         <v>500</v>
       </c>
       <c r="E11">
-        <v>1172.6780674082599</v>
+        <v>1115.9041483450901</v>
       </c>
       <c r="F11">
-        <v>0.82520373663464996</v>
+        <v>0.42520233812949598</v>
       </c>
       <c r="G11">
         <v>500</v>
       </c>
       <c r="H11">
-        <v>219.93305204814001</v>
+        <v>232.47606874023501</v>
       </c>
       <c r="I11">
-        <v>0.90798707072308804</v>
+        <v>0.554592226354785</v>
       </c>
       <c r="J11">
         <v>500</v>
@@ -7546,10 +7544,10 @@
         <v>125</v>
       </c>
       <c r="M11">
-        <v>1001.9562364790499</v>
+        <v>1008.6354253319701</v>
       </c>
       <c r="N11">
-        <v>0.808383146633744</v>
+        <v>0.415668192348295</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -7557,28 +7555,28 @@
         <v>550</v>
       </c>
       <c r="B12">
-        <v>513.45158476301197</v>
+        <v>600.23248565299502</v>
       </c>
       <c r="C12">
-        <v>0.82840844735411301</v>
+        <v>0.43843443926923598</v>
       </c>
       <c r="D12">
         <v>550</v>
       </c>
       <c r="E12">
-        <v>1302.8434401660099</v>
+        <v>1250.03932948948</v>
       </c>
       <c r="F12">
-        <v>0.81730964995242805</v>
+        <v>0.41065018229981198</v>
       </c>
       <c r="G12">
         <v>550</v>
       </c>
       <c r="H12">
-        <v>239.79086742488499</v>
+        <v>255.877943739692</v>
       </c>
       <c r="I12">
-        <v>0.903652782654494</v>
+        <v>0.54597541396230798</v>
       </c>
       <c r="J12">
         <v>550</v>
@@ -7590,10 +7588,10 @@
         <v>137</v>
       </c>
       <c r="M12">
-        <v>1077.8741749646999</v>
+        <v>1127.3168044077099</v>
       </c>
       <c r="N12">
-        <v>0.79698759316101797</v>
+        <v>0.402628654549186</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -7601,28 +7599,28 @@
         <v>600</v>
       </c>
       <c r="B13">
-        <v>654.34871224754397</v>
+        <v>650.87937650356798</v>
       </c>
       <c r="C13">
-        <v>0.82902277206415298</v>
+        <v>0.43371309406279301</v>
       </c>
       <c r="D13">
         <v>600</v>
       </c>
       <c r="E13">
-        <v>1430.3442689347901</v>
+        <v>1369.9899564780701</v>
       </c>
       <c r="F13">
-        <v>0.80985744098858203</v>
+        <v>0.40131412872419397</v>
       </c>
       <c r="G13">
         <v>600</v>
       </c>
       <c r="H13">
-        <v>258.34325478469901</v>
+        <v>277.95751328771001</v>
       </c>
       <c r="I13">
-        <v>0.90066773655536403</v>
+        <v>0.53824590802901096</v>
       </c>
       <c r="J13">
         <v>600</v>
@@ -7634,10 +7632,10 @@
         <v>150</v>
       </c>
       <c r="M13">
-        <v>1224.73383041442</v>
+        <v>1224.23544370068</v>
       </c>
       <c r="N13">
-        <v>0.78883487138682495</v>
+        <v>0.396768210431654</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -7645,28 +7643,28 @@
         <v>650</v>
       </c>
       <c r="B14">
-        <v>695.90029065471197</v>
+        <v>693.98342272062405</v>
       </c>
       <c r="C14">
-        <v>0.81505222963483104</v>
+        <v>0.42320324107561702</v>
       </c>
       <c r="D14">
         <v>650</v>
       </c>
       <c r="E14">
-        <v>1560.7203623908899</v>
+        <v>1487.7200636219</v>
       </c>
       <c r="F14">
-        <v>0.80271604011870201</v>
+        <v>0.39284677896269898</v>
       </c>
       <c r="G14">
         <v>650</v>
       </c>
       <c r="H14">
-        <v>276.97109917258098</v>
+        <v>299.41903856003501</v>
       </c>
       <c r="I14">
-        <v>0.89792759208499395</v>
+        <v>0.53178052666562403</v>
       </c>
       <c r="J14">
         <v>650</v>
@@ -7678,10 +7676,10 @@
         <v>162</v>
       </c>
       <c r="M14">
-        <v>1325.5212536361</v>
+        <v>1318.0851149494699</v>
       </c>
       <c r="N14">
-        <v>0.77564526039778903</v>
+        <v>0.38553193790076601</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -7689,28 +7687,28 @@
         <v>700</v>
       </c>
       <c r="B15">
-        <v>740.69055921138795</v>
+        <v>722.26271896924504</v>
       </c>
       <c r="C15">
-        <v>0.82580160242614997</v>
+        <v>0.43180765170472302</v>
       </c>
       <c r="D15">
         <v>700</v>
       </c>
       <c r="E15">
-        <v>1685.18699671935</v>
+        <v>1603.5109717868299</v>
       </c>
       <c r="F15">
-        <v>0.795435251676332</v>
+        <v>0.38479965348373402</v>
       </c>
       <c r="G15">
         <v>700</v>
       </c>
       <c r="H15">
-        <v>294.65858720705802</v>
+        <v>320.319367527054</v>
       </c>
       <c r="I15">
-        <v>0.89575706777817998</v>
+        <v>0.525882938350406</v>
       </c>
       <c r="J15">
         <v>700</v>
@@ -7722,10 +7720,10 @@
         <v>175</v>
       </c>
       <c r="M15">
-        <v>1416.07738960453</v>
+        <v>1413.5878060365301</v>
       </c>
       <c r="N15">
-        <v>0.78598623963618997</v>
+        <v>0.38649411313340598</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -7733,28 +7731,28 @@
         <v>750</v>
       </c>
       <c r="B16">
-        <v>722.063025532241</v>
+        <v>783.713492291487</v>
       </c>
       <c r="C16">
-        <v>0.82227893371692595</v>
+        <v>0.41772190603495402</v>
       </c>
       <c r="D16">
         <v>750</v>
       </c>
       <c r="E16">
-        <v>1805.48057259713</v>
+        <v>1719.3949579831899</v>
       </c>
       <c r="F16">
-        <v>0.78901701675199298</v>
+        <v>0.37814427466179201</v>
       </c>
       <c r="G16">
         <v>750</v>
       </c>
       <c r="H16">
-        <v>311.64480723622501</v>
+        <v>341.08794632159101</v>
       </c>
       <c r="I16">
-        <v>0.89359280847906797</v>
+        <v>0.520345062265405</v>
       </c>
       <c r="J16">
         <v>750</v>
@@ -7766,10 +7764,10 @@
         <v>187</v>
       </c>
       <c r="M16">
-        <v>1480.64357213982</v>
+        <v>1515.96573280852</v>
       </c>
       <c r="N16">
-        <v>0.78583088868249296</v>
+        <v>0.37788985523537599</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -7777,28 +7775,28 @@
         <v>800</v>
       </c>
       <c r="B17">
-        <v>738.21326853230903</v>
+        <v>840.53815343534905</v>
       </c>
       <c r="C17">
-        <v>0.80246851922118501</v>
+        <v>0.409081420325695</v>
       </c>
       <c r="D17">
         <v>800</v>
       </c>
       <c r="E17">
-        <v>1923.0930501667599</v>
+        <v>1835.25507343872</v>
       </c>
       <c r="F17">
-        <v>0.78298735388727803</v>
+        <v>0.37113963041523301</v>
       </c>
       <c r="G17">
         <v>800</v>
       </c>
       <c r="H17">
-        <v>328.50966849222601</v>
+        <v>361.69393775342201</v>
       </c>
       <c r="I17">
-        <v>0.89135644849809703</v>
+        <v>0.51448645092078504</v>
       </c>
       <c r="J17">
         <v>800</v>
@@ -7810,10 +7808,10 @@
         <v>200</v>
       </c>
       <c r="M17">
-        <v>1584.7960958097201</v>
+        <v>1629.61222559609</v>
       </c>
       <c r="N17">
-        <v>0.77025331868430502</v>
+        <v>0.36832360538199799</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -7821,28 +7819,28 @@
         <v>850</v>
       </c>
       <c r="B18">
-        <v>790.97821826530003</v>
+        <v>836.45766262966902</v>
       </c>
       <c r="C18">
-        <v>0.82872385686616501</v>
+        <v>0.419091201223803</v>
       </c>
       <c r="D18">
         <v>850</v>
       </c>
       <c r="E18">
-        <v>2035.4582132564799</v>
+        <v>1942.74998516408</v>
       </c>
       <c r="F18">
-        <v>0.77780442274148198</v>
+        <v>0.36554182265600499</v>
       </c>
       <c r="G18">
         <v>850</v>
       </c>
       <c r="H18">
-        <v>344.90868248852399</v>
+        <v>381.60675152701998</v>
       </c>
       <c r="I18">
-        <v>0.88937497168358104</v>
+        <v>0.50910949229746605</v>
       </c>
       <c r="J18">
         <v>850</v>
@@ -7854,10 +7852,10 @@
         <v>212</v>
       </c>
       <c r="M18">
-        <v>1656.53239519202</v>
+        <v>1684.3630376620699</v>
       </c>
       <c r="N18">
-        <v>0.78380031827654895</v>
+        <v>0.36506908942954303</v>
       </c>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
@@ -7865,28 +7863,28 @@
         <v>900</v>
       </c>
       <c r="B19">
-        <v>893.63150403289501</v>
+        <v>923.34734170074705</v>
       </c>
       <c r="C19">
-        <v>0.78599087644980004</v>
+        <v>0.393076364316155</v>
       </c>
       <c r="D19">
         <v>900</v>
       </c>
       <c r="E19">
-        <v>2146.8206686929998</v>
+        <v>2068.9679580357702</v>
       </c>
       <c r="F19">
-        <v>0.77309441118838296</v>
+        <v>0.35979635449249298</v>
       </c>
       <c r="G19">
         <v>900</v>
       </c>
       <c r="H19">
-        <v>361.21615056128002</v>
+        <v>402.350887973944</v>
       </c>
       <c r="I19">
-        <v>0.88718448430137697</v>
+        <v>0.50435943364873304</v>
       </c>
       <c r="J19">
         <v>900</v>
@@ -7898,10 +7896,10 @@
         <v>225</v>
       </c>
       <c r="M19">
-        <v>1804.09706257982</v>
+        <v>1821.3686435963</v>
       </c>
       <c r="N19">
-        <v>0.75325263625860805</v>
+        <v>0.35402330309665297</v>
       </c>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
@@ -7909,28 +7907,28 @@
         <v>950</v>
       </c>
       <c r="B20">
-        <v>1032.6836757072799</v>
+        <v>1021.47586508159</v>
       </c>
       <c r="C20">
-        <v>0.78183526498504896</v>
+        <v>0.37809918844815399</v>
       </c>
       <c r="D20">
         <v>950</v>
       </c>
       <c r="E20">
-        <v>2275.8305139358699</v>
+        <v>2182.1943740834499</v>
       </c>
       <c r="F20">
-        <v>0.76708127803325399</v>
+        <v>0.35479453393806598</v>
       </c>
       <c r="G20">
         <v>950</v>
       </c>
       <c r="H20">
-        <v>378.30958757364698</v>
+        <v>422.30753353973103</v>
       </c>
       <c r="I20">
-        <v>0.88503558665956805</v>
+        <v>0.49995167588755002</v>
       </c>
       <c r="J20">
         <v>950</v>
@@ -7942,10 +7940,10 @@
         <v>237</v>
       </c>
       <c r="M20">
-        <v>1947.75318855567</v>
+        <v>1924.2508669840699</v>
       </c>
       <c r="N20">
-        <v>0.74615225880074298</v>
+        <v>0.34208911064083503</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -7953,28 +7951,28 @@
         <v>1000</v>
       </c>
       <c r="B21">
-        <v>1017.03301054753</v>
+        <v>1073.38863569297</v>
       </c>
       <c r="C21">
-        <v>0.78516662088845601</v>
+        <v>0.382810514496011</v>
       </c>
       <c r="D21">
         <v>1000</v>
       </c>
       <c r="E21">
-        <v>2395.0627331298701</v>
+        <v>2309.5082892416199</v>
       </c>
       <c r="F21">
-        <v>0.761944608836988</v>
+        <v>0.348530574317719</v>
       </c>
       <c r="G21">
         <v>1000</v>
       </c>
       <c r="H21">
-        <v>395.47250101485099</v>
+        <v>443.198223810684</v>
       </c>
       <c r="I21">
-        <v>0.88288406974900302</v>
+        <v>0.49529044563262398</v>
       </c>
       <c r="J21">
         <v>1000</v>
@@ -7986,10 +7984,10 @@
         <v>250</v>
       </c>
       <c r="M21">
-        <v>2014.8452431892699</v>
+        <v>2055.0709353421198</v>
       </c>
       <c r="N21">
-        <v>0.74536506235275402</v>
+        <v>0.34778310843173199</v>
       </c>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
@@ -7997,10 +7995,10 @@
         <v>1050</v>
       </c>
       <c r="H22">
-        <v>412.518580168499</v>
+        <v>464.18739188384399</v>
       </c>
       <c r="I22">
-        <v>0.880811980393711</v>
+        <v>0.49139476462308401</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
@@ -8008,10 +8006,10 @@
         <v>1100</v>
       </c>
       <c r="H23">
-        <v>429.05114809865103</v>
+        <v>485.363459799255</v>
       </c>
       <c r="I23">
-        <v>0.87917649482375804</v>
+        <v>0.48721381250977402</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -8019,10 +8017,10 @@
         <v>1150</v>
       </c>
       <c r="H24">
-        <v>445.25247431128997</v>
+        <v>505.65753297704703</v>
       </c>
       <c r="I24">
-        <v>0.87708083204965503</v>
+        <v>0.48339257262668101</v>
       </c>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
@@ -8030,10 +8028,10 @@
         <v>1200</v>
       </c>
       <c r="H25">
-        <v>461.76486932644599</v>
+        <v>526.847983520551</v>
       </c>
       <c r="I25">
-        <v>0.87496842719282297</v>
+        <v>0.47993031186463803</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -8041,10 +8039,10 @@
         <v>1250</v>
       </c>
       <c r="H26">
-        <v>478.10465037568503</v>
+        <v>548.86880710872595</v>
       </c>
       <c r="I26">
-        <v>0.87284370469372896</v>
+        <v>0.47566169211370002</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -8052,10 +8050,10 @@
         <v>1300</v>
       </c>
       <c r="H27">
-        <v>494.13484914735398</v>
+        <v>569.89903210082798</v>
       </c>
       <c r="I27">
-        <v>0.87127685104430896</v>
+        <v>0.47216323408664301</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -8063,10 +8061,10 @@
         <v>1350</v>
       </c>
       <c r="H28">
-        <v>510.47357484867598</v>
+        <v>590.45667700743002</v>
       </c>
       <c r="I28">
-        <v>0.86935880300833601</v>
+        <v>0.469025801777056</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -8074,10 +8072,10 @@
         <v>1400</v>
       </c>
       <c r="H29">
-        <v>526.89593435285303</v>
+        <v>610.62205062204998</v>
       </c>
       <c r="I29">
-        <v>0.86752531487857898</v>
+        <v>0.46588699488778501</v>
       </c>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
@@ -8085,10 +8083,10 @@
         <v>1450</v>
       </c>
       <c r="H30">
-        <v>542.56995256476705</v>
+        <v>630.97062678282305</v>
       </c>
       <c r="I30">
-        <v>0.86539853943910805</v>
+        <v>0.46290217146934598</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -8096,10 +8094,10 @@
         <v>1500</v>
       </c>
       <c r="H31">
-        <v>558.38722428650397</v>
+        <v>650.957030084905</v>
       </c>
       <c r="I31">
-        <v>0.86346874008925301</v>
+        <v>0.45968229492492901</v>
       </c>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
@@ -8107,10 +8105,10 @@
         <v>1550</v>
       </c>
       <c r="H32">
-        <v>575.02564520068302</v>
+        <v>671.71307220386905</v>
       </c>
       <c r="I32">
-        <v>0.86124062726531303</v>
+        <v>0.45600049851423202</v>
       </c>
     </row>
     <row r="33" spans="7:9" x14ac:dyDescent="0.25">
@@ -8118,10 +8116,10 @@
         <v>1600</v>
       </c>
       <c r="H33">
-        <v>590.259067357513</v>
+        <v>692.32500105739496</v>
       </c>
       <c r="I33">
-        <v>0.85917066164144595</v>
+        <v>0.45266915883054398</v>
       </c>
     </row>
     <row r="34" spans="7:9" x14ac:dyDescent="0.25">
@@ -8129,10 +8127,10 @@
         <v>1650</v>
       </c>
       <c r="H34">
-        <v>605.32127782657994</v>
+        <v>713.46365914786895</v>
       </c>
       <c r="I34">
-        <v>0.85714186101168899</v>
+        <v>0.44924492810642702</v>
       </c>
     </row>
     <row r="35" spans="7:9" x14ac:dyDescent="0.25">
@@ -8140,10 +8138,10 @@
         <v>1700</v>
       </c>
       <c r="H35">
-        <v>618.92698315332802</v>
+        <v>734.01973094170398</v>
       </c>
       <c r="I35">
-        <v>0.85535746647335897</v>
+        <v>0.446440846643337</v>
       </c>
     </row>
     <row r="36" spans="7:9" x14ac:dyDescent="0.25">
@@ -8151,10 +8149,10 @@
         <v>1750</v>
       </c>
       <c r="H36">
-        <v>633.05906605718303</v>
+        <v>753.96775679410405</v>
       </c>
       <c r="I36">
-        <v>0.853515625</v>
+        <v>0.44367745273889497</v>
       </c>
     </row>
     <row r="37" spans="7:9" x14ac:dyDescent="0.25">
@@ -8162,10 +8160,10 @@
         <v>1800</v>
       </c>
       <c r="H37">
-        <v>647.940738022613</v>
+        <v>773.80291677500099</v>
       </c>
       <c r="I37">
-        <v>0.851309740564969</v>
+        <v>0.44070967410853901</v>
       </c>
     </row>
     <row r="38" spans="7:9" x14ac:dyDescent="0.25">
@@ -8173,10 +8171,10 @@
         <v>1850</v>
       </c>
       <c r="H38">
-        <v>661.87560032798399</v>
+        <v>794.72920156337204</v>
       </c>
       <c r="I38">
-        <v>0.84973612637051399</v>
+        <v>0.43755696869135102</v>
       </c>
     </row>
     <row r="39" spans="7:9" x14ac:dyDescent="0.25">
@@ -8184,10 +8182,10 @@
         <v>1900</v>
       </c>
       <c r="H39">
-        <v>675.74350020330496</v>
+        <v>815.25251519075596</v>
       </c>
       <c r="I39">
-        <v>0.847402499490304</v>
+        <v>0.43454364565412801</v>
       </c>
     </row>
     <row r="40" spans="7:9" x14ac:dyDescent="0.25">
@@ -8195,10 +8193,10 @@
         <v>1950</v>
       </c>
       <c r="H40">
-        <v>690.96458618665599</v>
+        <v>836.00909114124397</v>
       </c>
       <c r="I40">
-        <v>0.84560458386190596</v>
+        <v>0.431731011250782</v>
       </c>
     </row>
     <row r="41" spans="7:9" x14ac:dyDescent="0.25">
@@ -8206,10 +8204,10 @@
         <v>2000</v>
       </c>
       <c r="H41">
-        <v>704.98215845289997</v>
+        <v>856.10041841004102</v>
       </c>
       <c r="I41">
-        <v>0.843894980065241</v>
+        <v>0.42904584620347203</v>
       </c>
     </row>
   </sheetData>
@@ -8219,9 +8217,1149 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>101.976054604453</v>
+      </c>
+      <c r="C3">
+        <v>0.92257292893711396</v>
+      </c>
+      <c r="D3">
+        <v>100</v>
+      </c>
+      <c r="E3">
+        <v>215.970339792837</v>
+      </c>
+      <c r="F3">
+        <v>0.91584204535157598</v>
+      </c>
+      <c r="G3">
+        <v>100</v>
+      </c>
+      <c r="H3">
+        <v>32.9150356037728</v>
+      </c>
+      <c r="I3">
+        <v>0.95450623952292502</v>
+      </c>
+      <c r="J3">
+        <v>100</v>
+      </c>
+      <c r="K3">
+        <v>50</v>
+      </c>
+      <c r="L3">
+        <v>25</v>
+      </c>
+      <c r="M3">
+        <v>193.04384664265999</v>
+      </c>
+      <c r="N3">
+        <v>0.90789769702564305</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>150</v>
+      </c>
+      <c r="B4">
+        <v>146.59312491892501</v>
+      </c>
+      <c r="C4">
+        <v>0.918931862200978</v>
+      </c>
+      <c r="D4">
+        <v>150</v>
+      </c>
+      <c r="E4">
+        <v>330.89128856199198</v>
+      </c>
+      <c r="F4">
+        <v>0.895224719101123</v>
+      </c>
+      <c r="G4">
+        <v>150</v>
+      </c>
+      <c r="H4">
+        <v>48.139421553225297</v>
+      </c>
+      <c r="I4">
+        <v>0.94702695298341699</v>
+      </c>
+      <c r="J4">
+        <v>150</v>
+      </c>
+      <c r="K4">
+        <v>75</v>
+      </c>
+      <c r="L4">
+        <v>37</v>
+      </c>
+      <c r="M4">
+        <v>289.10450968553903</v>
+      </c>
+      <c r="N4">
+        <v>0.88434063094644799</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>200</v>
+      </c>
+      <c r="B5">
+        <v>208.54458083898601</v>
+      </c>
+      <c r="C5">
+        <v>0.89089857200299005</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+      <c r="E5">
+        <v>443.05993789793899</v>
+      </c>
+      <c r="F5">
+        <v>0.88485022030173899</v>
+      </c>
+      <c r="G5">
+        <v>200</v>
+      </c>
+      <c r="H5">
+        <v>68.818411232254704</v>
+      </c>
+      <c r="I5">
+        <v>0.94302453334541503</v>
+      </c>
+      <c r="J5">
+        <v>200</v>
+      </c>
+      <c r="K5">
+        <v>100</v>
+      </c>
+      <c r="L5">
+        <v>50</v>
+      </c>
+      <c r="M5">
+        <v>392.46742422137601</v>
+      </c>
+      <c r="N5">
+        <v>0.872039978536154</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>250</v>
+      </c>
+      <c r="B6">
+        <v>261.57954187730297</v>
+      </c>
+      <c r="C6">
+        <v>0.88299004394708203</v>
+      </c>
+      <c r="D6">
+        <v>250</v>
+      </c>
+      <c r="E6">
+        <v>555.56525672035002</v>
+      </c>
+      <c r="F6">
+        <v>0.87509326720505598</v>
+      </c>
+      <c r="G6">
+        <v>250</v>
+      </c>
+      <c r="H6">
+        <v>87.987193781260302</v>
+      </c>
+      <c r="I6">
+        <v>0.93914886507792605</v>
+      </c>
+      <c r="J6">
+        <v>250</v>
+      </c>
+      <c r="K6">
+        <v>125</v>
+      </c>
+      <c r="L6">
+        <v>62</v>
+      </c>
+      <c r="M6">
+        <v>496.11322808927599</v>
+      </c>
+      <c r="N6">
+        <v>0.85775501766944495</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>300</v>
+      </c>
+      <c r="B7">
+        <v>306.898551984096</v>
+      </c>
+      <c r="C7">
+        <v>0.87714153537286998</v>
+      </c>
+      <c r="D7">
+        <v>300</v>
+      </c>
+      <c r="E7">
+        <v>672.47833952204098</v>
+      </c>
+      <c r="F7">
+        <v>0.86585223926241395</v>
+      </c>
+      <c r="G7">
+        <v>300</v>
+      </c>
+      <c r="H7">
+        <v>110.465719145275</v>
+      </c>
+      <c r="I7">
+        <v>0.93521847533073499</v>
+      </c>
+      <c r="J7">
+        <v>300</v>
+      </c>
+      <c r="K7">
+        <v>150</v>
+      </c>
+      <c r="L7">
+        <v>75</v>
+      </c>
+      <c r="M7">
+        <v>588.24352461064302</v>
+      </c>
+      <c r="N7">
+        <v>0.84867383591201495</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>350</v>
+      </c>
+      <c r="B8">
+        <v>373.48844587806002</v>
+      </c>
+      <c r="C8">
+        <v>0.87096324670396796</v>
+      </c>
+      <c r="D8">
+        <v>350</v>
+      </c>
+      <c r="E8">
+        <v>787.20945136392697</v>
+      </c>
+      <c r="F8">
+        <v>0.85753078702654895</v>
+      </c>
+      <c r="G8">
+        <v>350</v>
+      </c>
+      <c r="H8">
+        <v>136.14055377261201</v>
+      </c>
+      <c r="I8">
+        <v>0.93150520172616802</v>
+      </c>
+      <c r="J8">
+        <v>350</v>
+      </c>
+      <c r="K8">
+        <v>175</v>
+      </c>
+      <c r="L8">
+        <v>87</v>
+      </c>
+      <c r="M8">
+        <v>699.93459518382701</v>
+      </c>
+      <c r="N8">
+        <v>0.84116895840884298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>400</v>
+      </c>
+      <c r="B9">
+        <v>399.453673985889</v>
+      </c>
+      <c r="C9">
+        <v>0.85364835821402596</v>
+      </c>
+      <c r="D9">
+        <v>400</v>
+      </c>
+      <c r="E9">
+        <v>904.56120129350302</v>
+      </c>
+      <c r="F9">
+        <v>0.84994329637096699</v>
+      </c>
+      <c r="G9">
+        <v>400</v>
+      </c>
+      <c r="H9">
+        <v>165.444675431148</v>
+      </c>
+      <c r="I9">
+        <v>0.92124258817732796</v>
+      </c>
+      <c r="J9">
+        <v>400</v>
+      </c>
+      <c r="K9">
+        <v>200</v>
+      </c>
+      <c r="L9">
+        <v>100</v>
+      </c>
+      <c r="M9">
+        <v>791.70968193918998</v>
+      </c>
+      <c r="N9">
+        <v>0.82558629145523699</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>450</v>
+      </c>
+      <c r="B10">
+        <v>438.60278821374197</v>
+      </c>
+      <c r="C10">
+        <v>0.86172214797027902</v>
+      </c>
+      <c r="D10">
+        <v>450</v>
+      </c>
+      <c r="E10">
+        <v>1026.56734857018</v>
+      </c>
+      <c r="F10">
+        <v>0.84232621505753902</v>
+      </c>
+      <c r="G10">
+        <v>450</v>
+      </c>
+      <c r="H10">
+        <v>194.716252911905</v>
+      </c>
+      <c r="I10">
+        <v>0.91296665458499404</v>
+      </c>
+      <c r="J10">
+        <v>450</v>
+      </c>
+      <c r="K10">
+        <v>225</v>
+      </c>
+      <c r="L10">
+        <v>112</v>
+      </c>
+      <c r="M10">
+        <v>883.95732298738994</v>
+      </c>
+      <c r="N10">
+        <v>0.82362488390268196</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>500</v>
+      </c>
+      <c r="B11">
+        <v>520.27844278295402</v>
+      </c>
+      <c r="C11">
+        <v>0.84940864698486696</v>
+      </c>
+      <c r="D11">
+        <v>500</v>
+      </c>
+      <c r="E11">
+        <v>1173.1650195166501</v>
+      </c>
+      <c r="F11">
+        <v>0.82518600347725601</v>
+      </c>
+      <c r="G11">
+        <v>500</v>
+      </c>
+      <c r="H11">
+        <v>219.93305204814001</v>
+      </c>
+      <c r="I11">
+        <v>0.90798707072308804</v>
+      </c>
+      <c r="J11">
+        <v>500</v>
+      </c>
+      <c r="K11">
+        <v>250</v>
+      </c>
+      <c r="L11">
+        <v>125</v>
+      </c>
+      <c r="M11">
+        <v>1001.9562364790499</v>
+      </c>
+      <c r="N11">
+        <v>0.808383146633744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>550</v>
+      </c>
+      <c r="B12">
+        <v>513.45158476301197</v>
+      </c>
+      <c r="C12">
+        <v>0.82840844735411301</v>
+      </c>
+      <c r="D12">
+        <v>550</v>
+      </c>
+      <c r="E12">
+        <v>1303.20402232575</v>
+      </c>
+      <c r="F12">
+        <v>0.81729014701884695</v>
+      </c>
+      <c r="G12">
+        <v>550</v>
+      </c>
+      <c r="H12">
+        <v>239.79086742488499</v>
+      </c>
+      <c r="I12">
+        <v>0.903652782654494</v>
+      </c>
+      <c r="J12">
+        <v>550</v>
+      </c>
+      <c r="K12">
+        <v>275</v>
+      </c>
+      <c r="L12">
+        <v>137</v>
+      </c>
+      <c r="M12">
+        <v>1077.8741749646999</v>
+      </c>
+      <c r="N12">
+        <v>0.79698759316101797</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>600</v>
+      </c>
+      <c r="B13">
+        <v>654.34871224754397</v>
+      </c>
+      <c r="C13">
+        <v>0.82902277206415298</v>
+      </c>
+      <c r="D13">
+        <v>600</v>
+      </c>
+      <c r="E13">
+        <v>1431.21377912867</v>
+      </c>
+      <c r="F13">
+        <v>0.80983616827881399</v>
+      </c>
+      <c r="G13">
+        <v>600</v>
+      </c>
+      <c r="H13">
+        <v>258.34325478469901</v>
+      </c>
+      <c r="I13">
+        <v>0.90066773655536403</v>
+      </c>
+      <c r="J13">
+        <v>600</v>
+      </c>
+      <c r="K13">
+        <v>300</v>
+      </c>
+      <c r="L13">
+        <v>150</v>
+      </c>
+      <c r="M13">
+        <v>1224.73383041442</v>
+      </c>
+      <c r="N13">
+        <v>0.78883487138682495</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>650</v>
+      </c>
+      <c r="B14">
+        <v>695.90029065471197</v>
+      </c>
+      <c r="C14">
+        <v>0.81505222963483104</v>
+      </c>
+      <c r="D14">
+        <v>650</v>
+      </c>
+      <c r="E14">
+        <v>1561.41041229136</v>
+      </c>
+      <c r="F14">
+        <v>0.80269299763274704</v>
+      </c>
+      <c r="G14">
+        <v>650</v>
+      </c>
+      <c r="H14">
+        <v>276.97109917258098</v>
+      </c>
+      <c r="I14">
+        <v>0.89792759208499395</v>
+      </c>
+      <c r="J14">
+        <v>650</v>
+      </c>
+      <c r="K14">
+        <v>325</v>
+      </c>
+      <c r="L14">
+        <v>162</v>
+      </c>
+      <c r="M14">
+        <v>1325.5212536361</v>
+      </c>
+      <c r="N14">
+        <v>0.77564526039778903</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>700</v>
+      </c>
+      <c r="B15">
+        <v>740.69055921138795</v>
+      </c>
+      <c r="C15">
+        <v>0.82580160242614997</v>
+      </c>
+      <c r="D15">
+        <v>700</v>
+      </c>
+      <c r="E15">
+        <v>1686.19277827514</v>
+      </c>
+      <c r="F15">
+        <v>0.79541043941418899</v>
+      </c>
+      <c r="G15">
+        <v>700</v>
+      </c>
+      <c r="H15">
+        <v>294.65858720705802</v>
+      </c>
+      <c r="I15">
+        <v>0.89575706777817998</v>
+      </c>
+      <c r="J15">
+        <v>700</v>
+      </c>
+      <c r="K15">
+        <v>350</v>
+      </c>
+      <c r="L15">
+        <v>175</v>
+      </c>
+      <c r="M15">
+        <v>1416.07738960453</v>
+      </c>
+      <c r="N15">
+        <v>0.78598623963618997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>750</v>
+      </c>
+      <c r="B16">
+        <v>722.063025532241</v>
+      </c>
+      <c r="C16">
+        <v>0.82227893371692595</v>
+      </c>
+      <c r="D16">
+        <v>750</v>
+      </c>
+      <c r="E16">
+        <v>1806.6351195805</v>
+      </c>
+      <c r="F16">
+        <v>0.78901701675199298</v>
+      </c>
+      <c r="G16">
+        <v>750</v>
+      </c>
+      <c r="H16">
+        <v>311.64480723622501</v>
+      </c>
+      <c r="I16">
+        <v>0.89359280847906797</v>
+      </c>
+      <c r="J16">
+        <v>750</v>
+      </c>
+      <c r="K16">
+        <v>375</v>
+      </c>
+      <c r="L16">
+        <v>187</v>
+      </c>
+      <c r="M16">
+        <v>1480.64357213982</v>
+      </c>
+      <c r="N16">
+        <v>0.78583088868249296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>800</v>
+      </c>
+      <c r="B17">
+        <v>738.21326853230903</v>
+      </c>
+      <c r="C17">
+        <v>0.80246851922118501</v>
+      </c>
+      <c r="D17">
+        <v>800</v>
+      </c>
+      <c r="E17">
+        <v>1924.0098065922</v>
+      </c>
+      <c r="F17">
+        <v>0.78295900207276103</v>
+      </c>
+      <c r="G17">
+        <v>800</v>
+      </c>
+      <c r="H17">
+        <v>328.50966849222601</v>
+      </c>
+      <c r="I17">
+        <v>0.89135644849809703</v>
+      </c>
+      <c r="J17">
+        <v>800</v>
+      </c>
+      <c r="K17">
+        <v>400</v>
+      </c>
+      <c r="L17">
+        <v>200</v>
+      </c>
+      <c r="M17">
+        <v>1584.7960958097201</v>
+      </c>
+      <c r="N17">
+        <v>0.77025331868430502</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>850</v>
+      </c>
+      <c r="B18">
+        <v>790.97821826530003</v>
+      </c>
+      <c r="C18">
+        <v>0.82872385686616501</v>
+      </c>
+      <c r="D18">
+        <v>850</v>
+      </c>
+      <c r="E18">
+        <v>2036.3384748450301</v>
+      </c>
+      <c r="F18">
+        <v>0.77780442274148198</v>
+      </c>
+      <c r="G18">
+        <v>850</v>
+      </c>
+      <c r="H18">
+        <v>344.90868248852399</v>
+      </c>
+      <c r="I18">
+        <v>0.88937497168358104</v>
+      </c>
+      <c r="J18">
+        <v>850</v>
+      </c>
+      <c r="K18">
+        <v>425</v>
+      </c>
+      <c r="L18">
+        <v>212</v>
+      </c>
+      <c r="M18">
+        <v>1656.53239519202</v>
+      </c>
+      <c r="N18">
+        <v>0.78380031827654895</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>900</v>
+      </c>
+      <c r="B19">
+        <v>893.63150403289501</v>
+      </c>
+      <c r="C19">
+        <v>0.78599087644980004</v>
+      </c>
+      <c r="D19">
+        <v>900</v>
+      </c>
+      <c r="E19">
+        <v>2147.3101770920398</v>
+      </c>
+      <c r="F19">
+        <v>0.77309441118838296</v>
+      </c>
+      <c r="G19">
+        <v>900</v>
+      </c>
+      <c r="H19">
+        <v>361.21615056128002</v>
+      </c>
+      <c r="I19">
+        <v>0.88718448430137697</v>
+      </c>
+      <c r="J19">
+        <v>900</v>
+      </c>
+      <c r="K19">
+        <v>450</v>
+      </c>
+      <c r="L19">
+        <v>225</v>
+      </c>
+      <c r="M19">
+        <v>1804.09706257982</v>
+      </c>
+      <c r="N19">
+        <v>0.75325263625860805</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>950</v>
+      </c>
+      <c r="B20">
+        <v>1032.6836757072799</v>
+      </c>
+      <c r="C20">
+        <v>0.78183526498504896</v>
+      </c>
+      <c r="D20">
+        <v>950</v>
+      </c>
+      <c r="E20">
+        <v>2276.5640612409302</v>
+      </c>
+      <c r="F20">
+        <v>0.76704761689017698</v>
+      </c>
+      <c r="G20">
+        <v>950</v>
+      </c>
+      <c r="H20">
+        <v>378.30958757364698</v>
+      </c>
+      <c r="I20">
+        <v>0.88503558665956805</v>
+      </c>
+      <c r="J20">
+        <v>950</v>
+      </c>
+      <c r="K20">
+        <v>475</v>
+      </c>
+      <c r="L20">
+        <v>237</v>
+      </c>
+      <c r="M20">
+        <v>1947.75318855567</v>
+      </c>
+      <c r="N20">
+        <v>0.74615225880074298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="B21">
+        <v>1017.03301054753</v>
+      </c>
+      <c r="C21">
+        <v>0.78516662088845601</v>
+      </c>
+      <c r="D21">
+        <v>1000</v>
+      </c>
+      <c r="E21">
+        <v>2395.8751696065101</v>
+      </c>
+      <c r="F21">
+        <v>0.76190917791772295</v>
+      </c>
+      <c r="G21">
+        <v>1000</v>
+      </c>
+      <c r="H21">
+        <v>395.47250101485099</v>
+      </c>
+      <c r="I21">
+        <v>0.88288406974900302</v>
+      </c>
+      <c r="J21">
+        <v>1000</v>
+      </c>
+      <c r="K21">
+        <v>500</v>
+      </c>
+      <c r="L21">
+        <v>250</v>
+      </c>
+      <c r="M21">
+        <v>2014.8452431892699</v>
+      </c>
+      <c r="N21">
+        <v>0.74536506235275402</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G22">
+        <v>1050</v>
+      </c>
+      <c r="H22">
+        <v>412.518580168499</v>
+      </c>
+      <c r="I22">
+        <v>0.880811980393711</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G23">
+        <v>1100</v>
+      </c>
+      <c r="H23">
+        <v>429.05114809865103</v>
+      </c>
+      <c r="I23">
+        <v>0.87917649482375804</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G24">
+        <v>1150</v>
+      </c>
+      <c r="H24">
+        <v>445.25247431128997</v>
+      </c>
+      <c r="I24">
+        <v>0.87708083204965503</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G25">
+        <v>1200</v>
+      </c>
+      <c r="H25">
+        <v>461.76486932644599</v>
+      </c>
+      <c r="I25">
+        <v>0.87496842719282297</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G26">
+        <v>1250</v>
+      </c>
+      <c r="H26">
+        <v>478.10465037568503</v>
+      </c>
+      <c r="I26">
+        <v>0.87284370469372896</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G27">
+        <v>1300</v>
+      </c>
+      <c r="H27">
+        <v>494.13484914735398</v>
+      </c>
+      <c r="I27">
+        <v>0.87127685104430896</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G28">
+        <v>1350</v>
+      </c>
+      <c r="H28">
+        <v>510.47357484867598</v>
+      </c>
+      <c r="I28">
+        <v>0.86935880300833601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G29">
+        <v>1400</v>
+      </c>
+      <c r="H29">
+        <v>526.89593435285303</v>
+      </c>
+      <c r="I29">
+        <v>0.86752531487857898</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G30">
+        <v>1450</v>
+      </c>
+      <c r="H30">
+        <v>542.56995256476705</v>
+      </c>
+      <c r="I30">
+        <v>0.86539853943910805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>1500</v>
+      </c>
+      <c r="H31">
+        <v>558.38722428650397</v>
+      </c>
+      <c r="I31">
+        <v>0.86346874008925301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G32">
+        <v>1550</v>
+      </c>
+      <c r="H32">
+        <v>575.02564520068302</v>
+      </c>
+      <c r="I32">
+        <v>0.86124062726531303</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <v>1600</v>
+      </c>
+      <c r="H33">
+        <v>590.259067357513</v>
+      </c>
+      <c r="I33">
+        <v>0.85917066164144595</v>
+      </c>
+    </row>
+    <row r="34" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <v>1650</v>
+      </c>
+      <c r="H34">
+        <v>605.32127782657994</v>
+      </c>
+      <c r="I34">
+        <v>0.85714186101168899</v>
+      </c>
+    </row>
+    <row r="35" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <v>1700</v>
+      </c>
+      <c r="H35">
+        <v>618.92698315332802</v>
+      </c>
+      <c r="I35">
+        <v>0.85535746647335897</v>
+      </c>
+    </row>
+    <row r="36" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <v>1750</v>
+      </c>
+      <c r="H36">
+        <v>633.05906605718303</v>
+      </c>
+      <c r="I36">
+        <v>0.853515625</v>
+      </c>
+    </row>
+    <row r="37" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <v>1800</v>
+      </c>
+      <c r="H37">
+        <v>647.940738022613</v>
+      </c>
+      <c r="I37">
+        <v>0.851309740564969</v>
+      </c>
+    </row>
+    <row r="38" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <v>1850</v>
+      </c>
+      <c r="H38">
+        <v>661.87560032798399</v>
+      </c>
+      <c r="I38">
+        <v>0.84973612637051399</v>
+      </c>
+    </row>
+    <row r="39" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <v>1900</v>
+      </c>
+      <c r="H39">
+        <v>675.74350020330496</v>
+      </c>
+      <c r="I39">
+        <v>0.847402499490304</v>
+      </c>
+    </row>
+    <row r="40" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <v>1950</v>
+      </c>
+      <c r="H40">
+        <v>690.96458618665599</v>
+      </c>
+      <c r="I40">
+        <v>0.84560458386190596</v>
+      </c>
+    </row>
+    <row r="41" spans="7:9" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <v>2000</v>
+      </c>
+      <c r="H41">
+        <v>704.98215845289997</v>
+      </c>
+      <c r="I41">
+        <v>0.843894980065241</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="U7" sqref="U7:W25"/>
     </sheetView>
   </sheetViews>
@@ -9714,12 +10852,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="V1" sqref="V1:AD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9902,10 +11040,10 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>215.33822666331201</v>
+        <v>215.970339792837</v>
       </c>
       <c r="C3">
-        <v>0.91597665452836097</v>
+        <v>0.91584204535157598</v>
       </c>
       <c r="D3">
         <v>100</v>
@@ -9994,10 +11132,10 @@
         <v>150</v>
       </c>
       <c r="B4">
-        <v>329.92526158445401</v>
+        <v>330.89128856199198</v>
       </c>
       <c r="C4">
-        <v>0.89549737082049596</v>
+        <v>0.895224719101123</v>
       </c>
       <c r="D4">
         <v>150</v>
@@ -10086,10 +11224,10 @@
         <v>200</v>
       </c>
       <c r="B5">
-        <v>439.60601864098197</v>
+        <v>443.05993789793899</v>
       </c>
       <c r="C5">
-        <v>0.88852969118113401</v>
+        <v>0.88485022030173899</v>
       </c>
       <c r="D5">
         <v>200</v>
@@ -10178,10 +11316,10 @@
         <v>250</v>
       </c>
       <c r="B6">
-        <v>554.83424980361303</v>
+        <v>555.56525672035002</v>
       </c>
       <c r="C6">
-        <v>0.87514618351304796</v>
+        <v>0.87509326720505598</v>
       </c>
       <c r="D6">
         <v>250</v>
@@ -10270,10 +11408,10 @@
         <v>300</v>
       </c>
       <c r="B7">
-        <v>671.80672468730597</v>
+        <v>672.47833952204098</v>
       </c>
       <c r="C7">
-        <v>0.86592681763093504</v>
+        <v>0.86585223926241395</v>
       </c>
       <c r="D7">
         <v>300</v>
@@ -10362,10 +11500,10 @@
         <v>350</v>
       </c>
       <c r="B8">
-        <v>786.59576245231995</v>
+        <v>787.20945136392697</v>
       </c>
       <c r="C8">
-        <v>0.85755563468421503</v>
+        <v>0.85753078702654895</v>
       </c>
       <c r="D8">
         <v>350</v>
@@ -10445,10 +11583,10 @@
         <v>400</v>
       </c>
       <c r="B9">
-        <v>903.51977997377503</v>
+        <v>904.56120129350302</v>
       </c>
       <c r="C9">
-        <v>0.85004265160610704</v>
+        <v>0.84994329637096699</v>
       </c>
       <c r="D9">
         <v>400</v>
@@ -10528,10 +11666,10 @@
         <v>450</v>
       </c>
       <c r="B10">
-        <v>1025.7473768289501</v>
+        <v>1026.56734857018</v>
       </c>
       <c r="C10">
-        <v>0.84239006858236598</v>
+        <v>0.84232621505753902</v>
       </c>
       <c r="D10">
         <v>450</v>
@@ -10611,10 +11749,10 @@
         <v>500</v>
       </c>
       <c r="B11">
-        <v>1172.6780674082599</v>
+        <v>1173.1650195166501</v>
       </c>
       <c r="C11">
-        <v>0.82520373663464996</v>
+        <v>0.82518600347725601</v>
       </c>
       <c r="D11">
         <v>500</v>
@@ -10694,10 +11832,10 @@
         <v>550</v>
       </c>
       <c r="B12">
-        <v>1302.8434401660099</v>
+        <v>1303.20402232575</v>
       </c>
       <c r="C12">
-        <v>0.81730964995242805</v>
+        <v>0.81729014701884695</v>
       </c>
       <c r="D12">
         <v>550</v>
@@ -10777,10 +11915,10 @@
         <v>600</v>
       </c>
       <c r="B13">
-        <v>1430.3442689347901</v>
+        <v>1431.21377912867</v>
       </c>
       <c r="C13">
-        <v>0.80985744098858203</v>
+        <v>0.80983616827881399</v>
       </c>
       <c r="D13">
         <v>600</v>
@@ -10860,10 +11998,10 @@
         <v>650</v>
       </c>
       <c r="B14">
-        <v>1560.7203623908899</v>
+        <v>1561.41041229136</v>
       </c>
       <c r="C14">
-        <v>0.80271604011870201</v>
+        <v>0.80269299763274704</v>
       </c>
       <c r="D14">
         <v>650</v>
@@ -10943,10 +12081,10 @@
         <v>700</v>
       </c>
       <c r="B15">
-        <v>1685.18699671935</v>
+        <v>1686.19277827514</v>
       </c>
       <c r="C15">
-        <v>0.795435251676332</v>
+        <v>0.79541043941418899</v>
       </c>
       <c r="D15">
         <v>700</v>
@@ -11026,7 +12164,7 @@
         <v>750</v>
       </c>
       <c r="B16">
-        <v>1805.48057259713</v>
+        <v>1806.6351195805</v>
       </c>
       <c r="C16">
         <v>0.78901701675199298</v>
@@ -11109,10 +12247,10 @@
         <v>800</v>
       </c>
       <c r="B17">
-        <v>1923.0930501667599</v>
+        <v>1924.0098065922</v>
       </c>
       <c r="C17">
-        <v>0.78298735388727803</v>
+        <v>0.78295900207276103</v>
       </c>
       <c r="D17">
         <v>800</v>
@@ -11192,7 +12330,7 @@
         <v>850</v>
       </c>
       <c r="B18">
-        <v>2035.4582132564799</v>
+        <v>2036.3384748450301</v>
       </c>
       <c r="C18">
         <v>0.77780442274148198</v>
@@ -11275,7 +12413,7 @@
         <v>900</v>
       </c>
       <c r="B19">
-        <v>2146.8206686929998</v>
+        <v>2147.3101770920398</v>
       </c>
       <c r="C19">
         <v>0.77309441118838296</v>
@@ -11358,10 +12496,10 @@
         <v>950</v>
       </c>
       <c r="B20">
-        <v>2275.8305139358699</v>
+        <v>2276.5640612409302</v>
       </c>
       <c r="C20">
-        <v>0.76708127803325399</v>
+        <v>0.76704761689017698</v>
       </c>
       <c r="D20">
         <v>950</v>
@@ -11441,10 +12579,10 @@
         <v>1000</v>
       </c>
       <c r="B21">
-        <v>2395.0627331298701</v>
+        <v>2395.8751696065101</v>
       </c>
       <c r="C21">
-        <v>0.761944608836988</v>
+        <v>0.76190917791772295</v>
       </c>
       <c r="D21">
         <v>1000</v>
@@ -11522,4 +12660,16 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/newCDC.xlsx
+++ b/newCDC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -122,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -146,28 +146,15 @@
       <family val="0"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="14"/>
       <color rgb="FF595959"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="10"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="9"/>
-      <color rgb="FF595959"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
@@ -249,15 +236,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -337,7 +324,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -351,7 +338,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400">
+              <a:rPr b="1" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -392,7 +379,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -556,7 +543,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -697,11 +684,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="3671776"/>
-        <c:axId val="62453045"/>
+        <c:axId val="5852485"/>
+        <c:axId val="72171203"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="3671776"/>
+        <c:axId val="5852485"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -727,7 +714,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -751,11 +738,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="62453045"/>
+        <c:crossAx val="72171203"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="62453045"/>
+        <c:axId val="72171203"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.7"/>
@@ -782,7 +769,7 @@
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
-                  <a:rPr sz="1000">
+                  <a:rPr b="1" sz="1000">
                     <a:solidFill>
                       <a:srgbClr val="595959"/>
                     </a:solidFill>
@@ -806,7 +793,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="3671776"/>
+        <c:crossAx val="5852485"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -842,7 +829,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -874,7 +861,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1038,7 +1025,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1179,11 +1166,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="98686282"/>
-        <c:axId val="13267255"/>
+        <c:axId val="4883004"/>
+        <c:axId val="52587430"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="98686282"/>
+        <c:axId val="4883004"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,11 +1197,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="13267255"/>
+        <c:crossAx val="52587430"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="13267255"/>
+        <c:axId val="52587430"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.3"/>
@@ -1242,7 +1229,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="98686282"/>
+        <c:crossAx val="4883004"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -1268,7 +1255,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1282,7 +1269,7 @@
               <a:defRPr/>
             </a:pPr>
             <a:r>
-              <a:rPr sz="1400">
+              <a:rPr b="1" sz="1400">
                 <a:solidFill>
                   <a:srgbClr val="595959"/>
                 </a:solidFill>
@@ -1323,7 +1310,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1481,7 +1468,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1639,7 +1626,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1797,7 +1784,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -1955,7 +1942,7 @@
             </a:ln>
           </c:spPr>
           <c:marker>
-            <c:size val="4"/>
+            <c:size val="3"/>
           </c:marker>
           <c:xVal>
             <c:numRef>
@@ -2090,11 +2077,11 @@
             </c:numRef>
           </c:yVal>
         </c:ser>
-        <c:axId val="51647731"/>
-        <c:axId val="27925336"/>
+        <c:axId val="34258839"/>
+        <c:axId val="65725797"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="51647731"/>
+        <c:axId val="34258839"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="4000"/>
@@ -2145,11 +2132,11 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="27925336"/>
+        <c:crossAx val="65725797"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="27925336"/>
+        <c:axId val="65725797"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2200,7 +2187,7 @@
             <a:round/>
           </a:ln>
         </c:spPr>
-        <c:crossAx val="51647731"/>
+        <c:crossAx val="34258839"/>
         <c:crossesAt val="0"/>
       </c:valAx>
       <c:spPr>
@@ -2241,15 +2228,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>493560</xdr:colOff>
+      <xdr:colOff>520560</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>100440</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>34</xdr:col>
-      <xdr:colOff>188280</xdr:colOff>
+      <xdr:colOff>214920</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>176400</xdr:rowOff>
+      <xdr:rowOff>167040</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2257,8 +2244,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="22183200" y="862200"/>
-        <a:ext cx="5795640" cy="2743200"/>
+        <a:off x="22210200" y="853200"/>
+        <a:ext cx="5795280" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2271,15 +2258,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>398520</xdr:colOff>
+      <xdr:colOff>425520</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>93240</xdr:colOff>
+      <xdr:colOff>119880</xdr:colOff>
       <xdr:row>45</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2287,8 +2274,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="12173760" y="5967720"/>
-        <a:ext cx="5796000" cy="2742840"/>
+        <a:off x="12200760" y="5958720"/>
+        <a:ext cx="5795640" cy="2742480"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2306,15 +2293,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>474840</xdr:colOff>
+      <xdr:colOff>501840</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>62280</xdr:rowOff>
+      <xdr:rowOff>53280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>31</xdr:col>
-      <xdr:colOff>169560</xdr:colOff>
+      <xdr:colOff>196200</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>138240</xdr:rowOff>
+      <xdr:rowOff>128880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -2322,8 +2309,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="25995960" y="824040"/>
-        <a:ext cx="5795640" cy="2743200"/>
+        <a:off x="26022960" y="815040"/>
+        <a:ext cx="5795280" cy="2742840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2344,17 +2331,17 @@
   <dimension ref="A1:R49"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N31" activeCellId="1" sqref="D24:F42 N31"/>
+      <selection pane="topLeft" activeCell="N31" activeCellId="0" sqref="N31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="1" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="2" width="13.9959514170041"/>
-    <col collapsed="false" hidden="false" max="6" min="5" style="2" width="9.1417004048583"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="3" width="15.2834008097166"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="3" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.9959514170041"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="9.1417004048583"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="15.2834008097166"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="0" width="9.1417004048583"/>
     <col collapsed="false" hidden="false" max="1025" min="10" style="0" width="8.5748987854251"/>
   </cols>
   <sheetData>
@@ -2362,33 +2349,20 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0"/>
-      <c r="C1" s="0"/>
       <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="0"/>
-      <c r="F1" s="0"/>
       <c r="G1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="0"/>
-      <c r="I1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0"/>
-      <c r="C2" s="0"/>
-      <c r="D2" s="0"/>
-      <c r="E2" s="0"/>
-      <c r="F2" s="0"/>
       <c r="G2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="0"/>
-      <c r="I2" s="0"/>
       <c r="J2" s="0" t="s">
         <v>5</v>
       </c>
@@ -3547,31 +3521,6 @@
       <c r="R23" s="0" t="n">
         <v>0.831212162185121</v>
       </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="0"/>
-      <c r="B24" s="0"/>
-      <c r="C24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="0"/>
-      <c r="B25" s="0"/>
-      <c r="C25" s="0"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="0"/>
-      <c r="B26" s="0"/>
-      <c r="C26" s="0"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="0"/>
-      <c r="B28" s="0"/>
-      <c r="C28" s="0"/>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
@@ -4000,10 +3949,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="1" sqref="D24:F42 D3"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4082,7 +4031,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>100</v>
       </c>
@@ -4114,19 +4063,19 @@
         <v>100</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>192.868344929568</v>
+        <v>26</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.579841972210275</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>193.528493733743</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.586003357639975</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>150</v>
       </c>
@@ -4158,19 +4107,19 @@
         <v>150</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>289.830991651394</v>
+        <v>38</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.535505912525414</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>291.192172559484</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.542471549255161</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>200</v>
       </c>
@@ -4202,19 +4151,19 @@
         <v>200</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>396.68088406359</v>
+        <v>51</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.510010391822411</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>398.811992154665</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.512412790555599</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>250</v>
       </c>
@@ -4246,19 +4195,19 @@
         <v>250</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>495.974305366178</v>
+        <v>63</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.483215068570143</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>498.109946289731</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.492490426816156</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>300</v>
       </c>
@@ -4290,19 +4239,19 @@
         <v>300</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>579.308099308099</v>
+        <v>76</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.473510108353534</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>582.078873439778</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.479469705485611</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>350</v>
       </c>
@@ -4334,19 +4283,19 @@
         <v>350</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>175</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>698.052795428376</v>
+        <v>88</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.453665637462855</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>701.132528056198</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.462645980362449</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>400</v>
       </c>
@@ -4378,19 +4327,19 @@
         <v>400</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>807.311287021281</v>
+        <v>101</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.435016989804895</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>811.69493206387</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.446159332724038</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>450</v>
       </c>
@@ -4422,19 +4371,19 @@
         <v>450</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>225</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>882.977667493796</v>
+        <v>113</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.435746158507976</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>886.204488238001</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.442968230714342</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>500</v>
       </c>
@@ -4466,19 +4415,19 @@
         <v>500</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>1008.63542533197</v>
+        <v>126</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.415668192348295</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1012.19058219708</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.424111349507351</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>550</v>
       </c>
@@ -4510,19 +4459,19 @@
         <v>550</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>275</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>1127.31680440771</v>
+        <v>138</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.402628654549186</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1133.91569394895</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.411186879300907</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>600</v>
       </c>
@@ -4554,19 +4503,19 @@
         <v>600</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>1224.23544370068</v>
+        <v>151</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.396768210431654</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1230.12362379288</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.401993690373788</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>650</v>
       </c>
@@ -4598,19 +4547,19 @@
         <v>650</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>325</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>1318.08511494947</v>
+        <v>163</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.385531937900766</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1329.9187520312</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.392846106945965</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>700</v>
       </c>
@@ -4642,19 +4591,19 @@
         <v>700</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>350</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>1413.58780603653</v>
+        <v>176</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.386494113133406</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1416.89158190868</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.39290368656162</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>750</v>
       </c>
@@ -4686,19 +4635,19 @@
         <v>750</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>375</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>187</v>
+        <v>376</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>1515.96573280852</v>
+        <v>188</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.377889855235376</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1521.81480104128</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.385819072323663</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>800</v>
       </c>
@@ -4730,19 +4679,19 @@
         <v>800</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>200</v>
+        <v>401</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>1629.61222559609</v>
+        <v>201</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.368323605381998</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1636.61850722392</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.376904342694323</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>850</v>
       </c>
@@ -4774,19 +4723,19 @@
         <v>850</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>425</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>212</v>
+        <v>426</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>1684.36303766207</v>
+        <v>213</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.365069089429543</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1691.93653418781</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.372612752189553</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>900</v>
       </c>
@@ -4818,19 +4767,19 @@
         <v>900</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>450</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>225</v>
+        <v>451</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>1821.3686435963</v>
+        <v>226</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.354023303096653</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1829.30710773357</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.361189781191351</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>950</v>
       </c>
@@ -4862,19 +4811,19 @@
         <v>950</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>475</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>237</v>
+        <v>476</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>1924.25086698407</v>
+        <v>238</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.342089110640835</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1935.17053851156</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.350014142897638</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>1000</v>
       </c>
@@ -4906,16 +4855,16 @@
         <v>1000</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>2055.07093534212</v>
+        <v>251</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.347783108431732</v>
+        <v>2070.01454315523</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.354444291034564</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5154,10 +5103,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N41"/>
+  <dimension ref="A1:O41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24:F42"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="G1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J3" activeCellId="0" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5236,7 +5185,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>100</v>
       </c>
@@ -5268,19 +5217,19 @@
         <v>100</v>
       </c>
       <c r="K3" s="0" t="n">
-        <v>50</v>
-      </c>
-      <c r="L3" s="0" t="n">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="n">
-        <v>193.04384664266</v>
+        <v>26</v>
       </c>
       <c r="N3" s="0" t="n">
-        <v>0.907897697025643</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>193.741496598639</v>
+      </c>
+      <c r="O3" s="0" t="n">
+        <v>0.919495358938927</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
         <v>150</v>
       </c>
@@ -5312,19 +5261,19 @@
         <v>150</v>
       </c>
       <c r="K4" s="0" t="n">
-        <v>75</v>
-      </c>
-      <c r="L4" s="0" t="n">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="M4" s="0" t="n">
-        <v>289.104509685539</v>
+        <v>38</v>
       </c>
       <c r="N4" s="0" t="n">
-        <v>0.884340630946448</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>290.158573658697</v>
+      </c>
+      <c r="O4" s="0" t="n">
+        <v>0.898570764146883</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
         <v>200</v>
       </c>
@@ -5356,19 +5305,19 @@
         <v>200</v>
       </c>
       <c r="K5" s="0" t="n">
-        <v>100</v>
-      </c>
-      <c r="L5" s="0" t="n">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="M5" s="0" t="n">
-        <v>392.467424221376</v>
+        <v>51</v>
       </c>
       <c r="N5" s="0" t="n">
-        <v>0.872039978536154</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>394.005438951259</v>
+      </c>
+      <c r="O5" s="0" t="n">
+        <v>0.887753007203697</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
         <v>250</v>
       </c>
@@ -5400,19 +5349,19 @@
         <v>250</v>
       </c>
       <c r="K6" s="0" t="n">
-        <v>125</v>
-      </c>
-      <c r="L6" s="0" t="n">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="M6" s="0" t="n">
-        <v>496.113228089276</v>
+        <v>63</v>
       </c>
       <c r="N6" s="0" t="n">
-        <v>0.857755017669445</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>497.87928451846</v>
+      </c>
+      <c r="O6" s="0" t="n">
+        <v>0.879662510760239</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
         <v>300</v>
       </c>
@@ -5444,19 +5393,19 @@
         <v>300</v>
       </c>
       <c r="K7" s="0" t="n">
-        <v>150</v>
-      </c>
-      <c r="L7" s="0" t="n">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="M7" s="0" t="n">
-        <v>588.243524610643</v>
+        <v>76</v>
       </c>
       <c r="N7" s="0" t="n">
-        <v>0.848673835912015</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>590.666304279651</v>
+      </c>
+      <c r="O7" s="0" t="n">
+        <v>0.865780634117887</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="n">
         <v>350</v>
       </c>
@@ -5488,19 +5437,19 @@
         <v>350</v>
       </c>
       <c r="K8" s="0" t="n">
-        <v>175</v>
-      </c>
-      <c r="L8" s="0" t="n">
-        <v>87</v>
+        <v>176</v>
       </c>
       <c r="M8" s="0" t="n">
-        <v>699.934595183827</v>
+        <v>88</v>
       </c>
       <c r="N8" s="0" t="n">
-        <v>0.841168958408843</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>703.560115549358</v>
+      </c>
+      <c r="O8" s="0" t="n">
+        <v>0.861019865383744</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
         <v>400</v>
       </c>
@@ -5532,19 +5481,19 @@
         <v>400</v>
       </c>
       <c r="K9" s="0" t="n">
-        <v>200</v>
-      </c>
-      <c r="L9" s="0" t="n">
-        <v>100</v>
+        <v>201</v>
       </c>
       <c r="M9" s="0" t="n">
-        <v>791.70968193919</v>
+        <v>101</v>
       </c>
       <c r="N9" s="0" t="n">
-        <v>0.825586291455237</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>796.149467395593</v>
+      </c>
+      <c r="O9" s="0" t="n">
+        <v>0.845546995344781</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
         <v>450</v>
       </c>
@@ -5576,19 +5525,19 @@
         <v>450</v>
       </c>
       <c r="K10" s="0" t="n">
-        <v>225</v>
-      </c>
-      <c r="L10" s="0" t="n">
-        <v>112</v>
+        <v>226</v>
       </c>
       <c r="M10" s="0" t="n">
-        <v>883.95732298739</v>
+        <v>113</v>
       </c>
       <c r="N10" s="0" t="n">
-        <v>0.823624883902682</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>888.041742629031</v>
+      </c>
+      <c r="O10" s="0" t="n">
+        <v>0.845055139146883</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="n">
         <v>500</v>
       </c>
@@ -5620,19 +5569,19 @@
         <v>500</v>
       </c>
       <c r="K11" s="0" t="n">
-        <v>250</v>
-      </c>
-      <c r="L11" s="0" t="n">
-        <v>125</v>
+        <v>251</v>
       </c>
       <c r="M11" s="0" t="n">
-        <v>1001.95623647905</v>
+        <v>126</v>
       </c>
       <c r="N11" s="0" t="n">
-        <v>0.808383146633744</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1005.55808656036</v>
+      </c>
+      <c r="O11" s="0" t="n">
+        <v>0.832168761609732</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
         <v>550</v>
       </c>
@@ -5664,19 +5613,19 @@
         <v>550</v>
       </c>
       <c r="K12" s="0" t="n">
-        <v>275</v>
-      </c>
-      <c r="L12" s="0" t="n">
-        <v>137</v>
+        <v>276</v>
       </c>
       <c r="M12" s="0" t="n">
-        <v>1077.8741749647</v>
+        <v>138</v>
       </c>
       <c r="N12" s="0" t="n">
-        <v>0.796987593161018</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1080.84318451356</v>
+      </c>
+      <c r="O12" s="0" t="n">
+        <v>0.827240855212486</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
         <v>600</v>
       </c>
@@ -5708,19 +5657,19 @@
         <v>600</v>
       </c>
       <c r="K13" s="0" t="n">
-        <v>300</v>
-      </c>
-      <c r="L13" s="0" t="n">
-        <v>150</v>
+        <v>301</v>
       </c>
       <c r="M13" s="0" t="n">
-        <v>1224.73383041442</v>
+        <v>151</v>
       </c>
       <c r="N13" s="0" t="n">
-        <v>0.788834871386825</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1230.0661790317</v>
+      </c>
+      <c r="O13" s="0" t="n">
+        <v>0.816330680556814</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
         <v>650</v>
       </c>
@@ -5752,19 +5701,19 @@
         <v>650</v>
       </c>
       <c r="K14" s="0" t="n">
-        <v>325</v>
-      </c>
-      <c r="L14" s="0" t="n">
-        <v>162</v>
+        <v>326</v>
       </c>
       <c r="M14" s="0" t="n">
-        <v>1325.5212536361</v>
+        <v>163</v>
       </c>
       <c r="N14" s="0" t="n">
-        <v>0.775645260397789</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1335.73637180275</v>
+      </c>
+      <c r="O14" s="0" t="n">
+        <v>0.810549458873233</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
         <v>700</v>
       </c>
@@ -5796,19 +5745,19 @@
         <v>700</v>
       </c>
       <c r="K15" s="0" t="n">
-        <v>350</v>
-      </c>
-      <c r="L15" s="0" t="n">
-        <v>175</v>
+        <v>351</v>
       </c>
       <c r="M15" s="0" t="n">
-        <v>1416.07738960453</v>
+        <v>176</v>
       </c>
       <c r="N15" s="0" t="n">
-        <v>0.78598623963619</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1421.99315482182</v>
+      </c>
+      <c r="O15" s="0" t="n">
+        <v>0.80910606481062</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="n">
         <v>750</v>
       </c>
@@ -5840,19 +5789,19 @@
         <v>750</v>
       </c>
       <c r="K16" s="0" t="n">
-        <v>375</v>
-      </c>
-      <c r="L16" s="0" t="n">
-        <v>187</v>
+        <v>376</v>
       </c>
       <c r="M16" s="0" t="n">
-        <v>1480.64357213982</v>
+        <v>188</v>
       </c>
       <c r="N16" s="0" t="n">
-        <v>0.785830888682493</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1485.39221871714</v>
+      </c>
+      <c r="O16" s="0" t="n">
+        <v>0.808182029267851</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="n">
         <v>800</v>
       </c>
@@ -5884,19 +5833,19 @@
         <v>800</v>
       </c>
       <c r="K17" s="0" t="n">
-        <v>400</v>
-      </c>
-      <c r="L17" s="0" t="n">
-        <v>200</v>
+        <v>401</v>
       </c>
       <c r="M17" s="0" t="n">
-        <v>1584.79609580972</v>
+        <v>201</v>
       </c>
       <c r="N17" s="0" t="n">
-        <v>0.770253318684305</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1594.99576582171</v>
+      </c>
+      <c r="O17" s="0" t="n">
+        <v>0.789159342152954</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
         <v>850</v>
       </c>
@@ -5928,19 +5877,19 @@
         <v>850</v>
       </c>
       <c r="K18" s="0" t="n">
-        <v>425</v>
-      </c>
-      <c r="L18" s="0" t="n">
-        <v>212</v>
+        <v>426</v>
       </c>
       <c r="M18" s="0" t="n">
-        <v>1656.53239519202</v>
+        <v>213</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.783800318276549</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1665.61490390284</v>
+      </c>
+      <c r="O18" s="0" t="n">
+        <v>0.799003262051468</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
         <v>900</v>
       </c>
@@ -5972,19 +5921,19 @@
         <v>900</v>
       </c>
       <c r="K19" s="0" t="n">
-        <v>450</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>225</v>
+        <v>451</v>
       </c>
       <c r="M19" s="0" t="n">
-        <v>1804.09706257982</v>
+        <v>226</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.753252636258608</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1813.24433605032</v>
+      </c>
+      <c r="O19" s="0" t="n">
+        <v>0.773128426286698</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="n">
         <v>950</v>
       </c>
@@ -6016,19 +5965,19 @@
         <v>950</v>
       </c>
       <c r="K20" s="0" t="n">
-        <v>475</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>237</v>
+        <v>476</v>
       </c>
       <c r="M20" s="0" t="n">
-        <v>1947.75318855567</v>
+        <v>238</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.746152258800743</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>1955.97895319856</v>
+      </c>
+      <c r="O20" s="0" t="n">
+        <v>0.760709234267398</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
         <v>1000</v>
       </c>
@@ -6060,16 +6009,16 @@
         <v>1000</v>
       </c>
       <c r="K21" s="0" t="n">
-        <v>500</v>
-      </c>
-      <c r="L21" s="0" t="n">
-        <v>250</v>
+        <v>501</v>
       </c>
       <c r="M21" s="0" t="n">
-        <v>2014.84524318927</v>
+        <v>251</v>
       </c>
       <c r="N21" s="0" t="n">
-        <v>0.745365062352754</v>
+        <v>2028.29779596525</v>
+      </c>
+      <c r="O21" s="0" t="n">
+        <v>0.770433835855382</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6083,7 +6032,7 @@
         <v>0.880811980393711</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G23" s="0" t="n">
         <v>1100</v>
       </c>
@@ -6311,7 +6260,7 @@
   <dimension ref="A1:W25"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U7" activeCellId="1" sqref="D24:F42 U7"/>
+      <selection pane="topLeft" activeCell="U7" activeCellId="0" sqref="U7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7824,7 +7773,7 @@
   <dimension ref="A1:AD21"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="1" sqref="D24:F42 A3"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9653,7 +9602,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="D24:F42 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
